--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69389.35488203293</v>
+        <v>60108.71878102707</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12565449.15890958</v>
+        <v>12564799.23513171</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3368509.494991863</v>
+        <v>3374808.71330381</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13.50979349205138</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="H2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.536891551628969</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="U2" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="F3" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>13.34053384443211</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.706151199248223</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5891238419305889</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.5891238419305925</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>20.54879046072614</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5517978991802437</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R5" t="n">
-        <v>15.49488714450009</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>18.21830727030011</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="U5" t="n">
-        <v>18.21830727030011</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.099778767350758</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.44271547525859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.50419080107098</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5891238419305886</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>3.183833028195925</v>
       </c>
     </row>
     <row r="8">
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>21.01808531142686</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.86249467691515</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="G8" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.027774177190928</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14.01919626068103</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>8.182388537626826</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>21.01808531142686</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.86249467691515</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="G9" t="n">
-        <v>17.31716204183244</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="H9" t="n">
-        <v>23.86249467691515</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.700923269594416</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.479784596074287</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.479784596074287</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>168.458279867845</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>77.59291375621571</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>92.63376431607153</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>12.88371534270434</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>88.09368046800152</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>88.09368046800152</v>
+        <v>140.6828788831183</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>56.05119447125097</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>76.72452921209067</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,14 +1606,14 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>191.255994400369</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>168.4582798678451</v>
+      </c>
+      <c r="Y14" t="n">
         <v>191.255994400369</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>191.255994400369</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>85.55513282065151</v>
       </c>
     </row>
     <row r="15">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>92.63376431607153</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>75.26385356802578</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>25.20538992537226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>53.18867582707299</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0522912385204</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>157.8854587601184</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.4033974688585</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>45.80356063690855</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>60.20342017356935</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6437471352894</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6055566661842</v>
+        <v>255.6199783641448</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,10 +1937,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.00432443796868</v>
+        <v>92.10077804644027</v>
       </c>
       <c r="H18" t="n">
-        <v>42.1325998589074</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>11.06901686068043</v>
+        <v>136.3802280967762</v>
       </c>
       <c r="U18" t="n">
-        <v>182.8475595388621</v>
+        <v>182.8539051709984</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -1988,10 +1988,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>61.85962398125706</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>27.11131261611424</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>156.440812271963</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7455908937104</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.8116211299295</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>69.61691646380757</v>
+        <v>398.4033974688585</v>
       </c>
       <c r="H20" t="n">
-        <v>273.6642377077183</v>
+        <v>275.5104403857141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>56.09548964508594</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6437471352894</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6199783641448</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>267.2426347212872</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.00432443796866</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>42.1325998589074</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>11.0690168606811</v>
+        <v>82.91146960715402</v>
       </c>
       <c r="U21" t="n">
-        <v>182.8475595388621</v>
+        <v>182.8539051709984</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>27.11131261611424</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7455908937104</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.8116211299295</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>77.98615982780706</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>404.251878232933</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>81.36572220981166</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.82042628441735</v>
+        <v>57.82042628441737</v>
       </c>
       <c r="T24" t="n">
         <v>135.5372539824022</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>31.1230129774424</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>266.0384087210081</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>75.34747066657825</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>207.1778914963508</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2620,10 +2620,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2645,10 +2645,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F27" t="n">
-        <v>92.70937201392481</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>91.89163974602977</v>
+        <v>91.89163974602971</v>
       </c>
       <c r="H27" t="n">
         <v>41.04430296570798</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.81217592437794</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>41.93853237997188</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>383.3763241831909</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>288.21291799535</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5300678317505</v>
+        <v>29.06362348709629</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>29.50834088925705</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>102.7135475519864</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
         <v>255.5887081042933</v>
@@ -3094,10 +3094,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>153.9920967821085</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H33" t="n">
-        <v>41.04430296570793</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>181.873851303636</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>137.8119736320461</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>196.3839362723785</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>357.736374542055</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H36" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>95.95648971690858</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.1952087471847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>128.5137691252072</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>335.5346762711133</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3596,10 +3596,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>91.89163974602977</v>
+        <v>91.89163974602971</v>
       </c>
       <c r="H39" t="n">
-        <v>41.04430296570794</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>96.54823338004257</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
-        <v>272.8288816498471</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>201.7199187713396</v>
       </c>
       <c r="G41" t="n">
-        <v>372.6060125049313</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>91.89163974602977</v>
+        <v>91.8916397460297</v>
       </c>
       <c r="H42" t="n">
         <v>41.04430296570798</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.82042628441735</v>
+        <v>57.82042628441737</v>
       </c>
       <c r="T42" t="n">
         <v>135.5372539824022</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.6337801671284</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>136.599236069867</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>144.4195500227475</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>242.5955948567672</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4109,7 +4109,7 @@
         <v>57.82042628441737</v>
       </c>
       <c r="T45" t="n">
-        <v>135.5372539824022</v>
+        <v>135.5372539824023</v>
       </c>
       <c r="U45" t="n">
         <v>182.8401460722872</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5300678317505</v>
+        <v>162.3163612889444</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>68.26443601865586</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.26212573374545</v>
+        <v>51.90838178632261</v>
       </c>
       <c r="C2" t="n">
-        <v>38.26212573374545</v>
+        <v>51.90838178632261</v>
       </c>
       <c r="D2" t="n">
-        <v>38.26212573374545</v>
+        <v>51.90838178632261</v>
       </c>
       <c r="E2" t="n">
-        <v>38.26212573374545</v>
+        <v>38.26212573374546</v>
       </c>
       <c r="F2" t="n">
-        <v>38.26212573374545</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="G2" t="n">
-        <v>38.26212573374545</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H2" t="n">
-        <v>19.85979515768473</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I2" t="n">
         <v>1.457464581624009</v>
@@ -4333,49 +4333,49 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K2" t="n">
-        <v>5.21909947599228</v>
+        <v>5.219099475992273</v>
       </c>
       <c r="L2" t="n">
         <v>15.88227649088182</v>
       </c>
       <c r="M2" t="n">
-        <v>32.89339907886391</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N2" t="n">
-        <v>50.92952327646103</v>
+        <v>50.92952327646101</v>
       </c>
       <c r="O2" t="n">
-        <v>65.79354395927301</v>
+        <v>65.79354395927302</v>
       </c>
       <c r="P2" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.87322908120045</v>
+        <v>70.31071236238333</v>
       </c>
       <c r="R2" t="n">
-        <v>72.87322908120045</v>
+        <v>70.31071236238333</v>
       </c>
       <c r="S2" t="n">
-        <v>72.87322908120045</v>
+        <v>70.31071236238333</v>
       </c>
       <c r="T2" t="n">
-        <v>72.87322908120045</v>
+        <v>51.90838178632261</v>
       </c>
       <c r="U2" t="n">
-        <v>56.66445630980617</v>
+        <v>51.90838178632261</v>
       </c>
       <c r="V2" t="n">
-        <v>56.66445630980617</v>
+        <v>51.90838178632261</v>
       </c>
       <c r="W2" t="n">
-        <v>38.26212573374545</v>
+        <v>51.90838178632261</v>
       </c>
       <c r="X2" t="n">
-        <v>38.26212573374545</v>
+        <v>51.90838178632261</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.26212573374545</v>
+        <v>51.90838178632261</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.47089850513973</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="C3" t="n">
-        <v>36.06856792907901</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="D3" t="n">
-        <v>17.66623735301829</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="E3" t="n">
-        <v>17.66623735301829</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F3" t="n">
         <v>1.457464581624009</v>
@@ -4415,7 +4415,7 @@
         <v>1.457464581624009</v>
       </c>
       <c r="L3" t="n">
-        <v>14.93961824937914</v>
+        <v>10.63528474396711</v>
       </c>
       <c r="M3" t="n">
         <v>28.67140894156423</v>
@@ -4424,37 +4424,37 @@
         <v>46.70753313916134</v>
       </c>
       <c r="O3" t="n">
-        <v>62.96599962173947</v>
+        <v>62.96599962173948</v>
       </c>
       <c r="P3" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="R3" t="n">
-        <v>72.87322908120045</v>
+        <v>59.39794236965287</v>
       </c>
       <c r="S3" t="n">
-        <v>72.87322908120045</v>
+        <v>40.99561179359215</v>
       </c>
       <c r="T3" t="n">
-        <v>72.87322908120045</v>
+        <v>40.99561179359215</v>
       </c>
       <c r="U3" t="n">
-        <v>72.87322908120045</v>
+        <v>40.99561179359215</v>
       </c>
       <c r="V3" t="n">
-        <v>54.47089850513973</v>
+        <v>22.59328121753142</v>
       </c>
       <c r="W3" t="n">
-        <v>54.47089850513973</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="X3" t="n">
-        <v>54.47089850513973</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.47089850513973</v>
+        <v>19.85979515768473</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="C4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="D4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="L4" t="n">
         <v>1.457464581624009</v>
@@ -4500,40 +4500,40 @@
         <v>1.457464581624009</v>
       </c>
       <c r="N4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="O4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="P4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="R4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="S4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="T4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="U4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="V4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="W4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="X4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.052539169432685</v>
+        <v>1.457464581624009</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.63713103745702</v>
       </c>
       <c r="C5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.63713103745702</v>
       </c>
       <c r="D5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.63713103745702</v>
       </c>
       <c r="E5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.63713103745702</v>
       </c>
       <c r="F5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K5" t="n">
-        <v>5.21909947599228</v>
+        <v>8.415911685442902</v>
       </c>
       <c r="L5" t="n">
-        <v>15.88227649088182</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M5" t="n">
-        <v>32.89339907886392</v>
+        <v>43.35950445951394</v>
       </c>
       <c r="N5" t="n">
-        <v>50.92952327646101</v>
+        <v>65.28609961349599</v>
       </c>
       <c r="O5" t="n">
-        <v>65.79354395927299</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P5" t="n">
-        <v>72.87322908120044</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q5" t="n">
-        <v>72.31585746586686</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="R5" t="n">
-        <v>56.66445630980616</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="S5" t="n">
-        <v>38.26212573374544</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="T5" t="n">
-        <v>19.85979515768473</v>
+        <v>70.13150065168809</v>
       </c>
       <c r="U5" t="n">
-        <v>1.457464581624009</v>
+        <v>46.38431584457255</v>
       </c>
       <c r="V5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.63713103745702</v>
       </c>
       <c r="W5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.63713103745702</v>
       </c>
       <c r="X5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.63713103745702</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.63713103745702</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.35384443365399</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="C6" t="n">
-        <v>71.35384443365399</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="D6" t="n">
-        <v>71.35384443365399</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="E6" t="n">
-        <v>67.21265375956231</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="F6" t="n">
-        <v>48.81032318350159</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G6" t="n">
-        <v>30.40799260744088</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H6" t="n">
-        <v>12.00566203138016</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I6" t="n">
-        <v>1.457464581624009</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J6" t="n">
-        <v>1.457464581624009</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K6" t="n">
-        <v>5.886021080118651</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="L6" t="n">
-        <v>19.36817474787378</v>
+        <v>17.89592671708687</v>
       </c>
       <c r="M6" t="n">
-        <v>28.67140894156422</v>
+        <v>39.73034208625465</v>
       </c>
       <c r="N6" t="n">
-        <v>46.70753313916133</v>
+        <v>63.00495791570859</v>
       </c>
       <c r="O6" t="n">
-        <v>62.96599962173946</v>
+        <v>81.90393668038412</v>
       </c>
       <c r="P6" t="n">
-        <v>72.87322908120044</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.35384443365399</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R6" t="n">
-        <v>71.35384443365399</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S6" t="n">
-        <v>71.35384443365399</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="T6" t="n">
-        <v>71.35384443365399</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="U6" t="n">
-        <v>71.35384443365399</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="V6" t="n">
-        <v>71.35384443365399</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="W6" t="n">
-        <v>71.35384443365399</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="X6" t="n">
-        <v>71.35384443365399</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="Y6" t="n">
-        <v>71.35384443365399</v>
+        <v>1.88077703672355</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.052539169432684</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="C7" t="n">
-        <v>2.052539169432684</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="D7" t="n">
-        <v>2.052539169432684</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="E7" t="n">
-        <v>2.052539169432684</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="F7" t="n">
-        <v>2.052539169432684</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G7" t="n">
-        <v>2.052539169432684</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H7" t="n">
-        <v>2.052539169432684</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I7" t="n">
-        <v>2.052539169432684</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J7" t="n">
-        <v>2.052539169432684</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="L7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.170301745874834</v>
       </c>
       <c r="M7" t="n">
-        <v>1.457464581624009</v>
+        <v>3.005035947119205</v>
       </c>
       <c r="N7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="O7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="P7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="R7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="S7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="T7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="U7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="V7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="W7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="X7" t="n">
-        <v>2.052539169432684</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.052539169432684</v>
+        <v>1.88077703672355</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.44997870766059</v>
+        <v>48.9206055003646</v>
       </c>
       <c r="C8" t="n">
-        <v>95.44997870766059</v>
+        <v>48.9206055003646</v>
       </c>
       <c r="D8" t="n">
-        <v>95.44997870766059</v>
+        <v>48.9206055003646</v>
       </c>
       <c r="E8" t="n">
-        <v>74.21958950419912</v>
+        <v>48.9206055003646</v>
       </c>
       <c r="F8" t="n">
-        <v>50.11605952751715</v>
+        <v>24.81707552368264</v>
       </c>
       <c r="G8" t="n">
-        <v>26.01252955083518</v>
+        <v>24.81707552368264</v>
       </c>
       <c r="H8" t="n">
-        <v>1.908999574153212</v>
+        <v>24.81707552368264</v>
       </c>
       <c r="I8" t="n">
-        <v>1.908999574153212</v>
+        <v>2.947155308689502</v>
       </c>
       <c r="J8" t="n">
         <v>1.908999574153212</v>
       </c>
       <c r="K8" t="n">
-        <v>8.629045391172383</v>
+        <v>8.629045391172397</v>
       </c>
       <c r="L8" t="n">
-        <v>22.96239275619891</v>
+        <v>22.96239275619893</v>
       </c>
       <c r="M8" t="n">
-        <v>44.05728702482666</v>
+        <v>44.05728702482668</v>
       </c>
       <c r="N8" t="n">
         <v>66.24326259831412</v>
       </c>
       <c r="O8" t="n">
-        <v>85.02587025944871</v>
+        <v>85.02587025944868</v>
       </c>
       <c r="P8" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="R8" t="n">
-        <v>95.44997870766059</v>
+        <v>81.28917440394235</v>
       </c>
       <c r="S8" t="n">
-        <v>95.44997870766059</v>
+        <v>81.28917440394235</v>
       </c>
       <c r="T8" t="n">
-        <v>95.44997870766059</v>
+        <v>81.28917440394235</v>
       </c>
       <c r="U8" t="n">
-        <v>95.44997870766059</v>
+        <v>81.28917440394235</v>
       </c>
       <c r="V8" t="n">
-        <v>95.44997870766059</v>
+        <v>81.28917440394235</v>
       </c>
       <c r="W8" t="n">
-        <v>95.44997870766059</v>
+        <v>73.02413547704657</v>
       </c>
       <c r="X8" t="n">
-        <v>95.44997870766059</v>
+        <v>48.9206055003646</v>
       </c>
       <c r="Y8" t="n">
-        <v>95.44997870766059</v>
+        <v>48.9206055003646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.44997870766059</v>
+        <v>50.11605952751714</v>
       </c>
       <c r="C9" t="n">
-        <v>95.44997870766059</v>
+        <v>50.11605952751714</v>
       </c>
       <c r="D9" t="n">
-        <v>95.44997870766059</v>
+        <v>50.11605952751714</v>
       </c>
       <c r="E9" t="n">
-        <v>71.34644873097862</v>
+        <v>50.11605952751714</v>
       </c>
       <c r="F9" t="n">
-        <v>47.24291875429665</v>
+        <v>26.01252955083518</v>
       </c>
       <c r="G9" t="n">
-        <v>29.75083588375883</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="H9" t="n">
-        <v>5.647305907076865</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="I9" t="n">
-        <v>5.647305907076865</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="J9" t="n">
         <v>1.908999574153212</v>
       </c>
       <c r="K9" t="n">
-        <v>8.346945923252324</v>
+        <v>2.008730241931282</v>
       </c>
       <c r="L9" t="n">
-        <v>24.53097221925459</v>
+        <v>18.19275653793354</v>
       </c>
       <c r="M9" t="n">
-        <v>46.56245863347765</v>
+        <v>40.2242429521566</v>
       </c>
       <c r="N9" t="n">
-        <v>63.94739528045544</v>
+        <v>63.8481126823026</v>
       </c>
       <c r="O9" t="n">
-        <v>83.16654218853648</v>
+        <v>83.06725959038364</v>
       </c>
       <c r="P9" t="n">
-        <v>95.44997870766059</v>
+        <v>95.35069610950775</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="R9" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="S9" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="T9" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="U9" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="V9" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="W9" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="X9" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="Y9" t="n">
-        <v>95.44997870766059</v>
+        <v>71.34644873097861</v>
       </c>
     </row>
     <row r="10">
@@ -4956,13 +4956,13 @@
         <v>5.423933509581785</v>
       </c>
       <c r="H10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="I10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="J10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="K10" t="n">
         <v>1.908999574153212</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.047494437440122</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="C11" t="n">
-        <v>7.047494437440122</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="D11" t="n">
-        <v>7.047494437440122</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="E11" t="n">
-        <v>7.047494437440122</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="F11" t="n">
-        <v>7.047494437440122</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="G11" t="n">
-        <v>7.047494437440122</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="H11" t="n">
-        <v>7.047494437440122</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="I11" t="n">
-        <v>7.047494437440122</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="J11" t="n">
-        <v>24.7825204949059</v>
+        <v>61.47172875552911</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60773643878167</v>
+        <v>138.9154718648984</v>
       </c>
       <c r="L11" t="n">
-        <v>108.8080325753178</v>
+        <v>240.9878195381906</v>
       </c>
       <c r="M11" t="n">
-        <v>168.6991254940436</v>
+        <v>359.709257145245</v>
       </c>
       <c r="N11" t="n">
-        <v>230.3090627719645</v>
+        <v>481.1014755937834</v>
       </c>
       <c r="O11" t="n">
-        <v>286.3185995386593</v>
+        <v>593.5617252439824</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5150307030225</v>
+        <v>683.9375338210157</v>
       </c>
       <c r="Q11" t="n">
-        <v>352.374721872006</v>
+        <v>743.9779309475098</v>
       </c>
       <c r="R11" t="n">
-        <v>352.3747218720061</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="S11" t="n">
-        <v>263.3912062477621</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="T11" t="n">
-        <v>174.4076906235181</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="U11" t="n">
-        <v>96.03101006168409</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="V11" t="n">
-        <v>7.047494437440122</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="W11" t="n">
-        <v>7.047494437440122</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="X11" t="n">
-        <v>7.047494437440122</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.047494437440122</v>
+        <v>571.83610446979</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.047494437440122</v>
+        <v>307.2177025013109</v>
       </c>
       <c r="C12" t="n">
-        <v>7.047494437440122</v>
+        <v>307.2177025013109</v>
       </c>
       <c r="D12" t="n">
-        <v>7.047494437440122</v>
+        <v>307.2177025013109</v>
       </c>
       <c r="E12" t="n">
-        <v>7.047494437440122</v>
+        <v>202.5157687742481</v>
       </c>
       <c r="F12" t="n">
-        <v>7.047494437440122</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="G12" t="n">
-        <v>7.047494437440122</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="H12" t="n">
-        <v>7.047494437440122</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="I12" t="n">
-        <v>7.047494437440122</v>
+        <v>15.6327953996678</v>
       </c>
       <c r="J12" t="n">
-        <v>14.55245432966377</v>
+        <v>40.07417499003834</v>
       </c>
       <c r="K12" t="n">
-        <v>40.07978517569843</v>
+        <v>94.54854469344613</v>
       </c>
       <c r="L12" t="n">
-        <v>81.93184470419641</v>
+        <v>175.3234702521545</v>
       </c>
       <c r="M12" t="n">
-        <v>133.9167152178292</v>
+        <v>272.7294895500566</v>
       </c>
       <c r="N12" t="n">
-        <v>189.6188753669568</v>
+        <v>375.0549611369267</v>
       </c>
       <c r="O12" t="n">
-        <v>236.9647528833238</v>
+        <v>465.052060015597</v>
       </c>
       <c r="P12" t="n">
-        <v>271.8223704119701</v>
+        <v>534.1410428855887</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.0118951916916</v>
+        <v>572.2133288600025</v>
       </c>
       <c r="R12" t="n">
-        <v>287.0118951916916</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="S12" t="n">
-        <v>287.0118951916916</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="T12" t="n">
-        <v>273.998041310172</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="U12" t="n">
-        <v>185.014525685928</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="V12" t="n">
-        <v>96.03101006168409</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="W12" t="n">
-        <v>7.047494437440122</v>
+        <v>436.1447119213736</v>
       </c>
       <c r="X12" t="n">
-        <v>7.047494437440122</v>
+        <v>436.1447119213736</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.047494437440122</v>
+        <v>436.1447119213736</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="C13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="D13" t="n">
-        <v>84.54701889409738</v>
+        <v>71.91784770480828</v>
       </c>
       <c r="E13" t="n">
-        <v>84.54701889409738</v>
+        <v>71.91784770480828</v>
       </c>
       <c r="F13" t="n">
-        <v>84.54701889409738</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="G13" t="n">
-        <v>84.54701889409738</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="H13" t="n">
-        <v>84.54701889409738</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="I13" t="n">
-        <v>7.047494437440122</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="J13" t="n">
-        <v>7.047494437440122</v>
+        <v>23.00527047835667</v>
       </c>
       <c r="K13" t="n">
-        <v>15.06648958421998</v>
+        <v>48.48500502844415</v>
       </c>
       <c r="L13" t="n">
-        <v>30.18773465530781</v>
+        <v>85.94998501359247</v>
       </c>
       <c r="M13" t="n">
-        <v>46.66043841756915</v>
+        <v>125.9810244199253</v>
       </c>
       <c r="N13" t="n">
-        <v>64.01830606238374</v>
+        <v>166.3370631426646</v>
       </c>
       <c r="O13" t="n">
-        <v>76.75022933554698</v>
+        <v>200.3115197681461</v>
       </c>
       <c r="P13" t="n">
-        <v>84.54701889409738</v>
+        <v>226.2849663706405</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="R13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="S13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="T13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="V13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="X13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.54701889409738</v>
+        <v>235.2346205780376</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.30047955202952</v>
+        <v>401.6762258154013</v>
       </c>
       <c r="C14" t="n">
-        <v>15.30047955202952</v>
+        <v>401.6762258154013</v>
       </c>
       <c r="D14" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="E14" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="F14" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="G14" t="n">
         <v>15.30047955202952</v>
@@ -5275,22 +5275,22 @@
         <v>15.30047955202952</v>
       </c>
       <c r="I14" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202953</v>
       </c>
       <c r="J14" t="n">
-        <v>61.47172875552947</v>
+        <v>61.47172875552911</v>
       </c>
       <c r="K14" t="n">
-        <v>138.9154718648988</v>
+        <v>138.9154718648984</v>
       </c>
       <c r="L14" t="n">
-        <v>240.9878195381909</v>
+        <v>240.9878195381906</v>
       </c>
       <c r="M14" t="n">
-        <v>359.7092571452452</v>
+        <v>359.709257145245</v>
       </c>
       <c r="N14" t="n">
-        <v>481.1014755937836</v>
+        <v>481.1014755937834</v>
       </c>
       <c r="O14" t="n">
         <v>593.5617252439827</v>
@@ -5305,25 +5305,25 @@
         <v>765.0239776014761</v>
       </c>
       <c r="S14" t="n">
-        <v>681.2834250285533</v>
+        <v>765.0239776014761</v>
       </c>
       <c r="T14" t="n">
-        <v>488.0955518968674</v>
+        <v>765.0239776014761</v>
       </c>
       <c r="U14" t="n">
-        <v>488.0955518968674</v>
+        <v>765.0239776014761</v>
       </c>
       <c r="V14" t="n">
-        <v>294.9076787651816</v>
+        <v>765.0239776014761</v>
       </c>
       <c r="W14" t="n">
-        <v>294.9076787651816</v>
+        <v>765.0239776014761</v>
       </c>
       <c r="X14" t="n">
-        <v>294.9076787651816</v>
+        <v>594.8640989470871</v>
       </c>
       <c r="Y14" t="n">
-        <v>208.4883526837154</v>
+        <v>401.6762258154013</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>423.8616307414584</v>
+        <v>317.4882020809031</v>
       </c>
       <c r="C15" t="n">
-        <v>306.3557272589632</v>
+        <v>317.4882020809031</v>
       </c>
       <c r="D15" t="n">
-        <v>202.5157687742482</v>
+        <v>213.6482435961881</v>
       </c>
       <c r="E15" t="n">
-        <v>202.5157687742482</v>
+        <v>108.9463098691254</v>
       </c>
       <c r="F15" t="n">
-        <v>108.8699384571523</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="G15" t="n">
         <v>15.30047955202952</v>
@@ -5390,19 +5390,19 @@
         <v>578.2486299851295</v>
       </c>
       <c r="U15" t="n">
-        <v>578.2486299851295</v>
+        <v>393.5122965940604</v>
       </c>
       <c r="V15" t="n">
-        <v>578.2486299851295</v>
+        <v>317.4882020809031</v>
       </c>
       <c r="W15" t="n">
-        <v>578.2486299851295</v>
+        <v>317.4882020809031</v>
       </c>
       <c r="X15" t="n">
-        <v>578.2486299851295</v>
+        <v>317.4882020809031</v>
       </c>
       <c r="Y15" t="n">
-        <v>552.7886401615211</v>
+        <v>317.4882020809031</v>
       </c>
     </row>
     <row r="16">
@@ -5421,16 +5421,16 @@
         <v>235.2346205780376</v>
       </c>
       <c r="E16" t="n">
-        <v>235.2346205780376</v>
+        <v>69.02641473089113</v>
       </c>
       <c r="F16" t="n">
-        <v>235.2346205780376</v>
+        <v>69.02641473089113</v>
       </c>
       <c r="G16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="H16" t="n">
-        <v>102.8585688219563</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="I16" t="n">
         <v>15.30047955202952</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.3857121196382</v>
+        <v>1341.94043458202</v>
       </c>
       <c r="C17" t="n">
-        <v>204.3857121196382</v>
+        <v>915.0397045953198</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3857121196382</v>
+        <v>915.0397045953198</v>
       </c>
       <c r="E17" t="n">
-        <v>204.3857121196382</v>
+        <v>489.0627647431774</v>
       </c>
       <c r="F17" t="n">
-        <v>44.90545074578129</v>
+        <v>489.0627647431774</v>
       </c>
       <c r="G17" t="n">
-        <v>44.90545074578129</v>
+        <v>86.63509053220918</v>
       </c>
       <c r="H17" t="n">
-        <v>44.90545074578129</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="I17" t="n">
-        <v>89.80582111878422</v>
+        <v>78.38883072061935</v>
       </c>
       <c r="J17" t="n">
-        <v>234.8257263094613</v>
+        <v>208.2614440185948</v>
       </c>
       <c r="K17" t="n">
-        <v>460.4179808729483</v>
+        <v>411.1518345652769</v>
       </c>
       <c r="L17" t="n">
-        <v>746.2816571925711</v>
+        <v>668.8518411359184</v>
       </c>
       <c r="M17" t="n">
-        <v>1069.506360716454</v>
+        <v>960.7390355058592</v>
       </c>
       <c r="N17" t="n">
-        <v>1398.710921725938</v>
+        <v>1258.099013700933</v>
       </c>
       <c r="O17" t="n">
-        <v>1707.402473592188</v>
+        <v>1536.72062902159</v>
       </c>
       <c r="P17" t="n">
-        <v>1965.257158638991</v>
+        <v>1768.911318919299</v>
       </c>
       <c r="Q17" t="n">
-        <v>2151.067217165333</v>
+        <v>1935.448785891973</v>
       </c>
       <c r="R17" t="n">
-        <v>2245.272537289065</v>
+        <v>2018.443383332249</v>
       </c>
       <c r="S17" t="n">
-        <v>2245.272537289065</v>
+        <v>1957.631847803391</v>
       </c>
       <c r="T17" t="n">
-        <v>2033.511176546348</v>
+        <v>1957.631847803391</v>
       </c>
       <c r="U17" t="n">
-        <v>1775.323745570404</v>
+        <v>1699.42984945577</v>
       </c>
       <c r="V17" t="n">
-        <v>1417.834330696654</v>
+        <v>1341.94043458202</v>
       </c>
       <c r="W17" t="n">
-        <v>1021.442980997001</v>
+        <v>1341.94043458202</v>
       </c>
       <c r="X17" t="n">
-        <v>609.7229821647479</v>
+        <v>1341.94043458202</v>
       </c>
       <c r="Y17" t="n">
-        <v>204.3857121196382</v>
+        <v>1341.94043458202</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.0909194812674</v>
+        <v>553.093582613812</v>
       </c>
       <c r="C18" t="n">
-        <v>482.5850159987722</v>
+        <v>435.5876791313168</v>
       </c>
       <c r="D18" t="n">
-        <v>378.7450575140572</v>
+        <v>331.7477206466019</v>
       </c>
       <c r="E18" t="n">
-        <v>274.0431237869944</v>
+        <v>227.0457869195391</v>
       </c>
       <c r="F18" t="n">
-        <v>180.3972934698986</v>
+        <v>133.3999566024432</v>
       </c>
       <c r="G18" t="n">
-        <v>87.46363242144534</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="H18" t="n">
-        <v>44.90545074578129</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="I18" t="n">
-        <v>66.69255612270229</v>
+        <v>58.86830103375443</v>
       </c>
       <c r="J18" t="n">
-        <v>150.0075180379491</v>
+        <v>133.1616396670458</v>
       </c>
       <c r="K18" t="n">
-        <v>305.1062171807965</v>
+        <v>272.8409476780166</v>
       </c>
       <c r="L18" t="n">
-        <v>521.1829714843635</v>
+        <v>468.1844277337211</v>
       </c>
       <c r="M18" t="n">
-        <v>776.479843152541</v>
+        <v>699.2865462800116</v>
       </c>
       <c r="N18" t="n">
-        <v>1040.875068153033</v>
+        <v>938.8466550372157</v>
       </c>
       <c r="O18" t="n">
-        <v>1279.134328508773</v>
+        <v>1154.386635964134</v>
       </c>
       <c r="P18" t="n">
-        <v>1467.216766987161</v>
+        <v>1324.234849733838</v>
       </c>
       <c r="Q18" t="n">
-        <v>1584.833026778167</v>
+        <v>1429.662013197002</v>
       </c>
       <c r="R18" t="n">
-        <v>1629.558009505399</v>
+        <v>1468.458297201827</v>
       </c>
       <c r="S18" t="n">
-        <v>1629.558009505399</v>
+        <v>1468.458297201827</v>
       </c>
       <c r="T18" t="n">
-        <v>1618.377184393601</v>
+        <v>1330.700491043468</v>
       </c>
       <c r="U18" t="n">
-        <v>1433.682679808891</v>
+        <v>1145.999576729328</v>
       </c>
       <c r="V18" t="n">
-        <v>1228.709540948158</v>
+        <v>941.026437868594</v>
       </c>
       <c r="W18" t="n">
-        <v>1032.188163781375</v>
+        <v>744.5050607018112</v>
       </c>
       <c r="X18" t="n">
-        <v>868.7108175480378</v>
+        <v>682.0205920338748</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.0179289013302</v>
+        <v>682.0205920338748</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>366.2432461159429</v>
+        <v>671.4667878250409</v>
       </c>
       <c r="C19" t="n">
-        <v>366.2432461159429</v>
+        <v>671.4667878250409</v>
       </c>
       <c r="D19" t="n">
-        <v>202.9264732427136</v>
+        <v>508.1500149518116</v>
       </c>
       <c r="E19" t="n">
-        <v>202.9264732427136</v>
+        <v>341.9418091046651</v>
       </c>
       <c r="F19" t="n">
-        <v>44.90545074578129</v>
+        <v>341.9418091046651</v>
       </c>
       <c r="G19" t="n">
-        <v>44.90545074578129</v>
+        <v>176.5422223433415</v>
       </c>
       <c r="H19" t="n">
-        <v>44.90545074578129</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="I19" t="n">
-        <v>44.90545074578129</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="J19" t="n">
-        <v>89.54563523154991</v>
+        <v>79.34917562875847</v>
       </c>
       <c r="K19" t="n">
-        <v>175.7215675043662</v>
+        <v>156.2241921278429</v>
       </c>
       <c r="L19" t="n">
-        <v>290.8567836051254</v>
+        <v>259.4574382314495</v>
       </c>
       <c r="M19" t="n">
-        <v>412.780196824683</v>
+        <v>368.8318928683422</v>
       </c>
       <c r="N19" t="n">
-        <v>533.0813917498241</v>
+        <v>476.8825153976125</v>
       </c>
       <c r="O19" t="n">
-        <v>640.898139626713</v>
+        <v>573.383876854315</v>
       </c>
       <c r="P19" t="n">
-        <v>730.0564230447931</v>
+        <v>652.8598923965163</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.7519831382665</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="R19" t="n">
-        <v>782.7519831382665</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="S19" t="n">
-        <v>782.7519831382665</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="T19" t="n">
-        <v>782.7519831382665</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="U19" t="n">
-        <v>782.7519831382665</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="V19" t="n">
-        <v>782.7519831382665</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="W19" t="n">
-        <v>782.7519831382665</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="X19" t="n">
-        <v>782.7519831382665</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="Y19" t="n">
-        <v>556.4092148280085</v>
+        <v>698.8519520837422</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>817.6310311752226</v>
+        <v>721.0899160045972</v>
       </c>
       <c r="C20" t="n">
-        <v>817.6310311752226</v>
+        <v>721.0899160045972</v>
       </c>
       <c r="D20" t="n">
-        <v>817.6310311752226</v>
+        <v>721.0899160045972</v>
       </c>
       <c r="E20" t="n">
-        <v>391.6540913230801</v>
+        <v>721.0899160045972</v>
       </c>
       <c r="F20" t="n">
-        <v>391.6540913230801</v>
+        <v>721.0899160045972</v>
       </c>
       <c r="G20" t="n">
-        <v>321.3339736828705</v>
+        <v>318.6622417936289</v>
       </c>
       <c r="H20" t="n">
-        <v>44.90545074578129</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="I20" t="n">
-        <v>89.80582111878402</v>
+        <v>78.38883072061947</v>
       </c>
       <c r="J20" t="n">
-        <v>234.8257263094611</v>
+        <v>208.2614440185945</v>
       </c>
       <c r="K20" t="n">
-        <v>460.4179808729483</v>
+        <v>411.1518345652765</v>
       </c>
       <c r="L20" t="n">
-        <v>746.2816571925712</v>
+        <v>668.8518411359182</v>
       </c>
       <c r="M20" t="n">
-        <v>1069.506360716455</v>
+        <v>960.7390355058592</v>
       </c>
       <c r="N20" t="n">
-        <v>1398.710921725938</v>
+        <v>1258.099013700933</v>
       </c>
       <c r="O20" t="n">
-        <v>1707.402473592188</v>
+        <v>1536.72062902159</v>
       </c>
       <c r="P20" t="n">
-        <v>1965.257158638991</v>
+        <v>1768.911318919298</v>
       </c>
       <c r="Q20" t="n">
-        <v>2151.067217165333</v>
+        <v>1935.448785891973</v>
       </c>
       <c r="R20" t="n">
-        <v>2245.272537289065</v>
+        <v>2018.443383332249</v>
       </c>
       <c r="S20" t="n">
-        <v>2188.610426536452</v>
+        <v>2018.443383332249</v>
       </c>
       <c r="T20" t="n">
-        <v>1976.849065793736</v>
+        <v>2018.443383332249</v>
       </c>
       <c r="U20" t="n">
-        <v>1976.849065793736</v>
+        <v>1760.241384984628</v>
       </c>
       <c r="V20" t="n">
-        <v>1619.359650919985</v>
+        <v>1402.751970110877</v>
       </c>
       <c r="W20" t="n">
-        <v>1222.968301220332</v>
+        <v>1132.80991483685</v>
       </c>
       <c r="X20" t="n">
-        <v>1222.968301220332</v>
+        <v>721.0899160045972</v>
       </c>
       <c r="Y20" t="n">
-        <v>817.6310311752226</v>
+        <v>721.0899160045972</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.0909194812674</v>
+        <v>366.4166633609179</v>
       </c>
       <c r="C21" t="n">
-        <v>482.5850159987722</v>
+        <v>248.9107598784227</v>
       </c>
       <c r="D21" t="n">
-        <v>378.7450575140572</v>
+        <v>145.0708013937078</v>
       </c>
       <c r="E21" t="n">
-        <v>274.0431237869944</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="F21" t="n">
-        <v>180.3972934698986</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="G21" t="n">
-        <v>87.46363242144534</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="H21" t="n">
-        <v>44.90545074578129</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="I21" t="n">
-        <v>66.6925561227023</v>
+        <v>58.86830103375443</v>
       </c>
       <c r="J21" t="n">
-        <v>150.0075180379492</v>
+        <v>133.1616396670458</v>
       </c>
       <c r="K21" t="n">
-        <v>305.1062171807966</v>
+        <v>272.8409476780166</v>
       </c>
       <c r="L21" t="n">
-        <v>521.1829714843637</v>
+        <v>468.1844277337211</v>
       </c>
       <c r="M21" t="n">
-        <v>776.4798431525413</v>
+        <v>699.2865462800116</v>
       </c>
       <c r="N21" t="n">
-        <v>1040.875068153034</v>
+        <v>938.8466550372157</v>
       </c>
       <c r="O21" t="n">
-        <v>1279.134328508774</v>
+        <v>1154.386635964134</v>
       </c>
       <c r="P21" t="n">
-        <v>1467.216766987162</v>
+        <v>1324.234849733838</v>
       </c>
       <c r="Q21" t="n">
-        <v>1584.833026778168</v>
+        <v>1429.662013197002</v>
       </c>
       <c r="R21" t="n">
-        <v>1629.5580095054</v>
+        <v>1468.458297201827</v>
       </c>
       <c r="S21" t="n">
-        <v>1629.5580095054</v>
+        <v>1468.458297201827</v>
       </c>
       <c r="T21" t="n">
-        <v>1618.377184393601</v>
+        <v>1384.709338002682</v>
       </c>
       <c r="U21" t="n">
-        <v>1433.682679808891</v>
+        <v>1200.008423688542</v>
       </c>
       <c r="V21" t="n">
-        <v>1228.709540948158</v>
+        <v>995.0352848278083</v>
       </c>
       <c r="W21" t="n">
-        <v>1032.188163781375</v>
+        <v>798.5139076610254</v>
       </c>
       <c r="X21" t="n">
-        <v>868.7108175480378</v>
+        <v>635.0365614276883</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.0179289013302</v>
+        <v>495.3436727809807</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1507.426004896579</v>
+        <v>671.4667878250409</v>
       </c>
       <c r="C22" t="n">
-        <v>1507.426004896579</v>
+        <v>671.4667878250409</v>
       </c>
       <c r="D22" t="n">
-        <v>1507.426004896579</v>
+        <v>508.1500149518116</v>
       </c>
       <c r="E22" t="n">
-        <v>1507.426004896579</v>
+        <v>341.9418091046651</v>
       </c>
       <c r="F22" t="n">
-        <v>1507.426004896579</v>
+        <v>341.9418091046651</v>
       </c>
       <c r="G22" t="n">
-        <v>1507.426004896579</v>
+        <v>176.5422223433415</v>
       </c>
       <c r="H22" t="n">
-        <v>1507.426004896579</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="I22" t="n">
-        <v>1507.426004896579</v>
+        <v>40.36886766664498</v>
       </c>
       <c r="J22" t="n">
-        <v>1552.066189382348</v>
+        <v>79.34917562875847</v>
       </c>
       <c r="K22" t="n">
-        <v>1638.242121655164</v>
+        <v>156.2241921278429</v>
       </c>
       <c r="L22" t="n">
-        <v>1753.377337755923</v>
+        <v>259.4574382314495</v>
       </c>
       <c r="M22" t="n">
-        <v>1875.300750975481</v>
+        <v>368.8318928683422</v>
       </c>
       <c r="N22" t="n">
-        <v>1995.601945900622</v>
+        <v>476.8825153976125</v>
       </c>
       <c r="O22" t="n">
-        <v>2103.418693777511</v>
+        <v>573.383876854315</v>
       </c>
       <c r="P22" t="n">
-        <v>2192.576977195591</v>
+        <v>652.8598923965163</v>
       </c>
       <c r="Q22" t="n">
-        <v>2245.272537289065</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="R22" t="n">
-        <v>2245.272537289065</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.272537289065</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="T22" t="n">
-        <v>2245.272537289065</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="U22" t="n">
-        <v>2245.272537289065</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="V22" t="n">
-        <v>2245.272537289065</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="W22" t="n">
-        <v>2166.498638473098</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="X22" t="n">
-        <v>1923.934741918903</v>
+        <v>698.8519520837422</v>
       </c>
       <c r="Y22" t="n">
-        <v>1697.591973608645</v>
+        <v>698.8519520837422</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1732.934416938126</v>
+        <v>1153.388878704342</v>
       </c>
       <c r="C23" t="n">
-        <v>1324.59918639981</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D23" t="n">
-        <v>901.3065655848104</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3296257326679</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F23" t="n">
-        <v>50.20544392206813</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G23" t="n">
-        <v>50.20544392206813</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H23" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I23" t="n">
         <v>103.1440473010161</v>
@@ -5992,22 +5992,22 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K23" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230804</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N23" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O23" t="n">
         <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q23" t="n">
         <v>2402.969627965676</v>
@@ -6016,25 +6016,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S23" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T23" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U23" t="n">
-        <v>2510.272196103407</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V23" t="n">
-        <v>2152.782781229656</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W23" t="n">
-        <v>2152.782781229656</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="X23" t="n">
-        <v>2152.782781229656</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="Y23" t="n">
-        <v>2152.782781229656</v>
+        <v>1153.388878704342</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C24" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D24" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E24" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F24" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662176</v>
       </c>
       <c r="H24" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145925</v>
       </c>
       <c r="J24" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570803</v>
       </c>
       <c r="K24" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266095</v>
       </c>
       <c r="L24" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744358</v>
       </c>
       <c r="M24" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688299</v>
       </c>
       <c r="N24" t="n">
         <v>1160.072685361481</v>
@@ -6089,10 +6089,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q24" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R24" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S24" t="n">
         <v>1759.362893661493</v>
@@ -6101,19 +6101,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U24" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V24" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W24" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X24" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y24" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="C25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="D25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="E25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J25" t="n">
         <v>101.4579413382349</v>
       </c>
       <c r="K25" t="n">
-        <v>198.4999349779649</v>
+        <v>198.499934977965</v>
       </c>
       <c r="L25" t="n">
-        <v>327.539968574382</v>
+        <v>327.5399685743821</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1240622438374</v>
+        <v>464.1240622438376</v>
       </c>
       <c r="N25" t="n">
-        <v>598.7373394060097</v>
+        <v>598.7373394060099</v>
       </c>
       <c r="O25" t="n">
-        <v>719.7736117064335</v>
+        <v>719.7736117064337</v>
       </c>
       <c r="P25" t="n">
-        <v>820.2434820122616</v>
+        <v>820.2434820122618</v>
       </c>
       <c r="Q25" t="n">
-        <v>880.7705985416225</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="R25" t="n">
-        <v>880.7705985416225</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S25" t="n">
-        <v>880.7705985416225</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="T25" t="n">
-        <v>880.7705985416225</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="U25" t="n">
-        <v>849.333211695721</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="V25" t="n">
-        <v>567.62174430375</v>
+        <v>318.9311092968238</v>
       </c>
       <c r="W25" t="n">
-        <v>292.769340476263</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="X25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>823.8564780638183</v>
+        <v>1088.40961907752</v>
       </c>
       <c r="C26" t="n">
-        <v>823.8564780638183</v>
+        <v>661.5088890908205</v>
       </c>
       <c r="D26" t="n">
-        <v>400.5638572488185</v>
+        <v>661.5088890908205</v>
       </c>
       <c r="E26" t="n">
-        <v>324.4553010199516</v>
+        <v>661.5088890908205</v>
       </c>
       <c r="F26" t="n">
-        <v>324.4553010199516</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G26" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H26" t="n">
         <v>50.20544392206813</v>
@@ -6232,7 +6232,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230804</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080623</v>
@@ -6259,19 +6259,19 @@
         <v>2247.627653696034</v>
       </c>
       <c r="U26" t="n">
-        <v>1989.457241469475</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="V26" t="n">
-        <v>1631.967826595724</v>
+        <v>1890.138238822283</v>
       </c>
       <c r="W26" t="n">
-        <v>1235.576476896071</v>
+        <v>1493.74688912263</v>
       </c>
       <c r="X26" t="n">
-        <v>823.8564780638183</v>
+        <v>1493.74688912263</v>
       </c>
       <c r="Y26" t="n">
-        <v>823.8564780638183</v>
+        <v>1088.40961907752</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>278.1300042510202</v>
       </c>
       <c r="F27" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G27" t="n">
         <v>91.66433580662166</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2009.232020204229</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="C28" t="n">
-        <v>2009.232020204229</v>
+        <v>556.6913016139792</v>
       </c>
       <c r="D28" t="n">
-        <v>1845.915247330999</v>
+        <v>393.37452874075</v>
       </c>
       <c r="E28" t="n">
-        <v>1679.707041483853</v>
+        <v>227.1663228936035</v>
       </c>
       <c r="F28" t="n">
-        <v>1679.707041483853</v>
+        <v>227.1663228936035</v>
       </c>
       <c r="G28" t="n">
-        <v>1679.707041483853</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J28" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K28" t="n">
-        <v>1828.00153253975</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L28" t="n">
-        <v>1957.041566136167</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M28" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N28" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O28" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P28" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q28" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R28" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.272196103407</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T28" t="n">
-        <v>2510.272196103407</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U28" t="n">
-        <v>2510.272196103407</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V28" t="n">
-        <v>2510.272196103407</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="W28" t="n">
-        <v>2510.272196103407</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="X28" t="n">
-        <v>2267.708299549212</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="Y28" t="n">
-        <v>2041.365531238954</v>
+        <v>728.6638647350633</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2113.880846403755</v>
+        <v>1017.612308308905</v>
       </c>
       <c r="C29" t="n">
-        <v>1726.632034097501</v>
+        <v>1017.612308308905</v>
       </c>
       <c r="D29" t="n">
-        <v>1303.339413282501</v>
+        <v>1017.612308308905</v>
       </c>
       <c r="E29" t="n">
-        <v>877.3624734303589</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2382916197591</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G29" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H29" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I29" t="n">
         <v>103.1440473010161</v>
@@ -6469,7 +6469,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L29" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M29" t="n">
         <v>1196.576905080623</v>
@@ -6478,37 +6478,37 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O29" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P29" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q29" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R29" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S29" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T29" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U29" t="n">
-        <v>2510.272196103408</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V29" t="n">
-        <v>2510.272196103408</v>
+        <v>1842.797942645545</v>
       </c>
       <c r="W29" t="n">
-        <v>2113.880846403755</v>
+        <v>1842.797942645545</v>
       </c>
       <c r="X29" t="n">
-        <v>2113.880846403755</v>
+        <v>1842.797942645545</v>
       </c>
       <c r="Y29" t="n">
-        <v>2113.880846403755</v>
+        <v>1437.460672600435</v>
       </c>
     </row>
     <row r="30">
@@ -6527,16 +6527,16 @@
         <v>382.8319379780831</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510204</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339246</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662147</v>
       </c>
       <c r="H30" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I30" t="n">
         <v>75.83346633145928</v>
@@ -6545,13 +6545,13 @@
         <v>169.6881981570805</v>
       </c>
       <c r="K30" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L30" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744362</v>
       </c>
       <c r="M30" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688301</v>
       </c>
       <c r="N30" t="n">
         <v>1160.072685361481</v>
@@ -6563,10 +6563,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q30" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R30" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S30" t="n">
         <v>1759.362893661493</v>
@@ -6578,7 +6578,7 @@
         <v>1437.769560272917</v>
       </c>
       <c r="V30" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W30" t="n">
         <v>1036.275044245401</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1679.707041483854</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="C31" t="n">
-        <v>1679.707041483854</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="D31" t="n">
-        <v>1679.707041483854</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="E31" t="n">
-        <v>1679.707041483854</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="F31" t="n">
-        <v>1679.707041483854</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G31" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H31" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I31" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J31" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K31" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L31" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M31" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N31" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O31" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P31" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T31" t="n">
-        <v>2271.352935667296</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="U31" t="n">
-        <v>1991.224913814468</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.513446422497</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="W31" t="n">
-        <v>1679.707041483854</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="X31" t="n">
-        <v>1679.707041483854</v>
+        <v>851.4134031001111</v>
       </c>
       <c r="Y31" t="n">
-        <v>1679.707041483854</v>
+        <v>851.4134031001111</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>879.139021606459</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="C32" t="n">
-        <v>452.2382916197591</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D32" t="n">
-        <v>452.2382916197591</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E32" t="n">
-        <v>452.2382916197591</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2382916197591</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G32" t="n">
-        <v>50.20544392206814</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H32" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I32" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K32" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L32" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M32" t="n">
         <v>1196.576905080624</v>
@@ -6718,34 +6718,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P32" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q32" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R32" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S32" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T32" t="n">
-        <v>2458.457769745854</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U32" t="n">
-        <v>2200.287357519296</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V32" t="n">
-        <v>1842.797942645545</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W32" t="n">
-        <v>1446.406592945892</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="X32" t="n">
-        <v>1034.686594113639</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="Y32" t="n">
-        <v>879.139021606459</v>
+        <v>830.2392068509622</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>91.66433580662161</v>
       </c>
       <c r="H33" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I33" t="n">
         <v>75.83346633145928</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1679.707041483853</v>
+        <v>544.9529038222996</v>
       </c>
       <c r="C34" t="n">
-        <v>1679.707041483853</v>
+        <v>544.9529038222996</v>
       </c>
       <c r="D34" t="n">
-        <v>1679.707041483853</v>
+        <v>381.6361309490703</v>
       </c>
       <c r="E34" t="n">
-        <v>1679.707041483853</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="F34" t="n">
-        <v>1679.707041483853</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J34" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K34" t="n">
-        <v>1828.00153253975</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L34" t="n">
-        <v>1957.041566136167</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M34" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N34" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O34" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P34" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S34" t="n">
-        <v>2510.272196103407</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T34" t="n">
-        <v>2510.272196103407</v>
+        <v>544.9529038222996</v>
       </c>
       <c r="U34" t="n">
-        <v>2510.272196103407</v>
+        <v>544.9529038222996</v>
       </c>
       <c r="V34" t="n">
-        <v>2510.272196103407</v>
+        <v>544.9529038222996</v>
       </c>
       <c r="W34" t="n">
-        <v>2235.41979227592</v>
+        <v>544.9529038222996</v>
       </c>
       <c r="X34" t="n">
-        <v>2096.215778506177</v>
+        <v>544.9529038222996</v>
       </c>
       <c r="Y34" t="n">
-        <v>1869.873010195919</v>
+        <v>544.9529038222996</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1073.898524831101</v>
+        <v>875.5309124347589</v>
       </c>
       <c r="C35" t="n">
-        <v>1073.898524831101</v>
+        <v>875.5309124347589</v>
       </c>
       <c r="D35" t="n">
-        <v>650.605904016101</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="E35" t="n">
-        <v>650.605904016101</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="F35" t="n">
-        <v>650.605904016101</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G35" t="n">
-        <v>248.5730563184101</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H35" t="n">
         <v>50.20544392206816</v>
@@ -6937,16 +6937,16 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J35" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L35" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M35" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N35" t="n">
         <v>1562.984812457614</v>
@@ -6955,7 +6955,7 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P35" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q35" t="n">
         <v>2402.969627965677</v>
@@ -6967,22 +6967,22 @@
         <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V35" t="n">
-        <v>1890.138238822284</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="W35" t="n">
-        <v>1493.746889122631</v>
+        <v>2062.066420046202</v>
       </c>
       <c r="X35" t="n">
-        <v>1493.746889122631</v>
+        <v>1700.716546771398</v>
       </c>
       <c r="Y35" t="n">
-        <v>1493.746889122631</v>
+        <v>1295.379276726289</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.1777999452934</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C36" t="n">
-        <v>486.6718964627981</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D36" t="n">
-        <v>382.8319379780832</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510204</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339246</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H36" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83346633145925</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J36" t="n">
-        <v>169.6881981570803</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K36" t="n">
-        <v>342.8010428266098</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L36" t="n">
         <v>583.100038874436</v>
       </c>
       <c r="M36" t="n">
-        <v>866.6631241688301</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N36" t="n">
         <v>1160.072685361481</v>
@@ -7058,10 +7058,10 @@
         <v>1036.275044245401</v>
       </c>
       <c r="X36" t="n">
-        <v>872.7976980120637</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y36" t="n">
-        <v>733.1048093653561</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>544.9529038222996</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="C37" t="n">
-        <v>544.9529038222996</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="D37" t="n">
-        <v>381.6361309490703</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="E37" t="n">
-        <v>215.4279251019238</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="F37" t="n">
-        <v>215.4279251019238</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G37" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H37" t="n">
         <v>50.20544392206816</v>
@@ -7122,25 +7122,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S37" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T37" t="n">
-        <v>880.7705985416225</v>
+        <v>631.7381175462667</v>
       </c>
       <c r="U37" t="n">
-        <v>880.7705985416225</v>
+        <v>631.7381175462667</v>
       </c>
       <c r="V37" t="n">
-        <v>880.7705985416225</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="W37" t="n">
-        <v>880.7705985416225</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="X37" t="n">
-        <v>880.7705985416225</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="Y37" t="n">
-        <v>735.1188725343652</v>
+        <v>350.0266501542957</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2090.423831811877</v>
+        <v>879.3913708358111</v>
       </c>
       <c r="C38" t="n">
-        <v>1663.523101825177</v>
+        <v>749.5794828305513</v>
       </c>
       <c r="D38" t="n">
-        <v>1240.230481010177</v>
+        <v>749.5794828305513</v>
       </c>
       <c r="E38" t="n">
-        <v>814.2535411580349</v>
+        <v>749.5794828305513</v>
       </c>
       <c r="F38" t="n">
-        <v>389.1293593474351</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="G38" t="n">
-        <v>50.20544392206813</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H38" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I38" t="n">
         <v>103.1440473010161</v>
@@ -7180,7 +7180,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L38" t="n">
-        <v>836.7412585230809</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M38" t="n">
         <v>1196.576905080623</v>
@@ -7201,25 +7201,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U38" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="V38" t="n">
-        <v>2510.272196103407</v>
+        <v>2100.968354872104</v>
       </c>
       <c r="W38" t="n">
-        <v>2510.272196103407</v>
+        <v>1704.577005172451</v>
       </c>
       <c r="X38" t="n">
-        <v>2510.272196103407</v>
+        <v>1704.577005172451</v>
       </c>
       <c r="Y38" t="n">
-        <v>2510.272196103407</v>
+        <v>1299.239735127341</v>
       </c>
     </row>
     <row r="39">
@@ -7244,13 +7244,13 @@
         <v>184.4841739339244</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H39" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J39" t="n">
         <v>169.6881981570805</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.20544392206813</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="C40" t="n">
-        <v>50.20544392206813</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="D40" t="n">
-        <v>50.20544392206813</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="E40" t="n">
-        <v>50.20544392206813</v>
+        <v>282.3276370350891</v>
       </c>
       <c r="F40" t="n">
-        <v>50.20544392206813</v>
+        <v>184.80416897444</v>
       </c>
       <c r="G40" t="n">
-        <v>50.20544392206813</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H40" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I40" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J40" t="n">
         <v>101.4579413382349</v>
@@ -7359,25 +7359,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U40" t="n">
-        <v>600.6425766887946</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="V40" t="n">
-        <v>325.0578477495551</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="W40" t="n">
-        <v>50.20544392206813</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="X40" t="n">
-        <v>50.20544392206813</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.20544392206813</v>
+        <v>448.5358428822355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1704.577005172451</v>
+        <v>1780.438993227766</v>
       </c>
       <c r="C41" t="n">
-        <v>1277.676275185751</v>
+        <v>1353.538263241066</v>
       </c>
       <c r="D41" t="n">
-        <v>1277.676275185751</v>
+        <v>930.2456424260665</v>
       </c>
       <c r="E41" t="n">
-        <v>851.6993353336087</v>
+        <v>930.2456424260665</v>
       </c>
       <c r="F41" t="n">
-        <v>426.5751535230089</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G41" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H41" t="n">
         <v>50.20544392206816</v>
@@ -7417,7 +7417,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230811</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M41" t="n">
         <v>1196.576905080623</v>
@@ -7426,10 +7426,10 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O41" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P41" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q41" t="n">
         <v>2402.969627965677</v>
@@ -7444,19 +7444,19 @@
         <v>2458.457769745855</v>
       </c>
       <c r="U41" t="n">
-        <v>2458.457769745855</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V41" t="n">
-        <v>2100.968354872104</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.577005172451</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="X41" t="n">
-        <v>1704.577005172451</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="Y41" t="n">
-        <v>1704.577005172451</v>
+        <v>2200.287357519296</v>
       </c>
     </row>
     <row r="42">
@@ -7472,13 +7472,13 @@
         <v>486.671896462798</v>
       </c>
       <c r="D42" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G42" t="n">
         <v>91.66433580662168</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>723.5647599889675</v>
+        <v>486.0999681808684</v>
       </c>
       <c r="C43" t="n">
-        <v>551.5921968678834</v>
+        <v>486.0999681808684</v>
       </c>
       <c r="D43" t="n">
-        <v>388.2754239946541</v>
+        <v>322.7831953076391</v>
       </c>
       <c r="E43" t="n">
-        <v>222.0672181475077</v>
+        <v>322.7831953076391</v>
       </c>
       <c r="F43" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H43" t="n">
         <v>50.20544392206816</v>
@@ -7596,25 +7596,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S43" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T43" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U43" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V43" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="W43" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="X43" t="n">
-        <v>880.7705985416225</v>
+        <v>486.0999681808684</v>
       </c>
       <c r="Y43" t="n">
-        <v>880.7705985416225</v>
+        <v>486.0999681808684</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.3756811435439</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="C44" t="n">
-        <v>720.3756811435439</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="D44" t="n">
-        <v>720.3756811435439</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="E44" t="n">
-        <v>720.3756811435439</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="F44" t="n">
-        <v>295.2514993329441</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G44" t="n">
-        <v>295.2514993329441</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H44" t="n">
         <v>50.20544392206816</v>
@@ -7651,13 +7651,13 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L44" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N44" t="n">
         <v>1562.984812457614</v>
@@ -7666,7 +7666,7 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P44" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q44" t="n">
         <v>2402.969627965677</v>
@@ -7681,19 +7681,19 @@
         <v>2299.442080053587</v>
       </c>
       <c r="U44" t="n">
-        <v>2299.442080053587</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="V44" t="n">
-        <v>1941.952665179837</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="W44" t="n">
-        <v>1545.561315480184</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="X44" t="n">
-        <v>1545.561315480184</v>
+        <v>875.6709044213719</v>
       </c>
       <c r="Y44" t="n">
-        <v>1140.224045435074</v>
+        <v>470.3336343762622</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>583.100038874436</v>
       </c>
       <c r="M45" t="n">
-        <v>866.6631241688299</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N45" t="n">
         <v>1160.072685361481</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.20544392206816</v>
+        <v>716.8146780477392</v>
       </c>
       <c r="C46" t="n">
-        <v>50.20544392206816</v>
+        <v>716.8146780477392</v>
       </c>
       <c r="D46" t="n">
-        <v>50.20544392206816</v>
+        <v>553.4979051745099</v>
       </c>
       <c r="E46" t="n">
-        <v>50.20544392206816</v>
+        <v>387.2896993273635</v>
       </c>
       <c r="F46" t="n">
-        <v>50.20544392206816</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G46" t="n">
         <v>50.20544392206816</v>
@@ -7836,22 +7836,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T46" t="n">
-        <v>641.8513381055109</v>
+        <v>716.8146780477392</v>
       </c>
       <c r="U46" t="n">
-        <v>361.7233162526831</v>
+        <v>716.8146780477392</v>
       </c>
       <c r="V46" t="n">
-        <v>292.769340476263</v>
+        <v>716.8146780477392</v>
       </c>
       <c r="W46" t="n">
-        <v>292.769340476263</v>
+        <v>716.8146780477392</v>
       </c>
       <c r="X46" t="n">
-        <v>50.20544392206816</v>
+        <v>716.8146780477392</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.20544392206816</v>
+        <v>716.8146780477392</v>
       </c>
     </row>
   </sheetData>
@@ -22555,22 +22555,22 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>408.2073769615697</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>402.6546327221936</v>
       </c>
       <c r="G2" t="n">
-        <v>399.9846413962156</v>
+        <v>381.7663341259155</v>
       </c>
       <c r="H2" t="n">
-        <v>273.4860474864606</v>
+        <v>291.7043547567607</v>
       </c>
       <c r="I2" t="n">
-        <v>4.338596154314477</v>
+        <v>22.55690342461458</v>
       </c>
       <c r="J2" t="n">
-        <v>3.021643902788004</v>
+        <v>3.021643902788</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.536891551628976</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>15.49488714450009</v>
@@ -22600,16 +22600,16 @@
         <v>96.23601616822083</v>
       </c>
       <c r="T2" t="n">
-        <v>217.3547797125806</v>
+        <v>199.1364724422805</v>
       </c>
       <c r="U2" t="n">
-        <v>239.6997928346531</v>
+        <v>255.7464778783334</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>374.2091289323565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -22628,16 +22628,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>98.11253717737014</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>84.5832516295677</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>85.43660711949202</v>
       </c>
       <c r="F3" t="n">
-        <v>76.66268697024454</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
         <v>92.94681813455406</v>
@@ -22649,7 +22649,7 @@
         <v>10.44271547525859</v>
       </c>
       <c r="J3" t="n">
-        <v>4.888458418784962</v>
+        <v>4.888458418784959</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,13 +22670,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.50419080107098</v>
+        <v>1.504190801070976</v>
       </c>
       <c r="R3" t="n">
-        <v>13.34053384443212</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>77.41990205371728</v>
+        <v>59.20159478341716</v>
       </c>
       <c r="T3" t="n">
         <v>139.7903633642173</v>
@@ -22688,7 +22688,7 @@
         <v>184.7051002018263</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>191.8500121958668</v>
       </c>
       <c r="X3" t="n">
         <v>161.8425727710037</v>
@@ -22731,22 +22731,22 @@
         <v>10.77286693432814</v>
       </c>
       <c r="K4" t="n">
-        <v>4.755254677277748</v>
+        <v>4.755254677277744</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5871850422329292</v>
+        <v>1.176308884163515</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7054336060544557</v>
+        <v>0.7054336060544522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.779019446119921</v>
+        <v>2.779019446119918</v>
       </c>
       <c r="P4" t="n">
-        <v>5.506790124936622</v>
+        <v>5.506790124936618</v>
       </c>
       <c r="Q4" t="n">
         <v>12.9368725197517</v>
@@ -22755,7 +22755,7 @@
         <v>40.29501189884586</v>
       </c>
       <c r="S4" t="n">
-        <v>166.0022870397414</v>
+        <v>165.4131631978108</v>
       </c>
       <c r="T4" t="n">
         <v>240.3098339603297</v>
@@ -22795,19 +22795,19 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>400.3241495317676</v>
       </c>
       <c r="G5" t="n">
-        <v>399.9846413962156</v>
+        <v>399.9626175572692</v>
       </c>
       <c r="H5" t="n">
-        <v>291.7043547567607</v>
+        <v>291.4788031161503</v>
       </c>
       <c r="I5" t="n">
-        <v>22.55690342461459</v>
+        <v>21.70782937363144</v>
       </c>
       <c r="J5" t="n">
-        <v>3.021643902788004</v>
+        <v>1.152398102006444</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.985093652448732</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>14.11143217127993</v>
       </c>
       <c r="S5" t="n">
-        <v>78.01770889792073</v>
+        <v>95.73414793822852</v>
       </c>
       <c r="T5" t="n">
-        <v>199.1364724422805</v>
+        <v>193.7486573985481</v>
       </c>
       <c r="U5" t="n">
-        <v>237.5281706080333</v>
+        <v>232.2350030121733</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>330.4048077659687</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -22871,22 +22871,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>99.55513562244138</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>74.49106474362478</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>74.72851086425396</v>
+        <v>92.93503434185737</v>
       </c>
       <c r="H6" t="n">
-        <v>33.01679750036619</v>
+        <v>51.12129814120099</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.03700156004394</v>
       </c>
       <c r="J6" t="n">
-        <v>4.888458418784962</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.34053384443212</v>
+        <v>12.60890503121191</v>
       </c>
       <c r="S6" t="n">
-        <v>77.41990205371728</v>
+        <v>56.49366809838028</v>
       </c>
       <c r="T6" t="n">
-        <v>139.7903633642173</v>
+        <v>139.7428664103214</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9095657031111</v>
+        <v>182.9087904535916</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>179.413694513082</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>171.0464504360706</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>114.7862468011961</v>
       </c>
     </row>
     <row r="7">
@@ -22956,49 +22956,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.4548824832565</v>
+        <v>164.4450033473029</v>
       </c>
       <c r="H7" t="n">
-        <v>141.1178681715301</v>
+        <v>141.0300336718695</v>
       </c>
       <c r="I7" t="n">
-        <v>94.57521008439309</v>
+        <v>94.27811752316894</v>
       </c>
       <c r="J7" t="n">
-        <v>10.77286693432814</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K7" t="n">
-        <v>4.166130835347159</v>
+        <v>3.60747870011792</v>
       </c>
       <c r="L7" t="n">
-        <v>1.176308884163518</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7054336060544557</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.779019446119921</v>
+        <v>1.382648484235652</v>
       </c>
       <c r="P7" t="n">
-        <v>5.506790124936622</v>
+        <v>4.311953536506707</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.9368725197517</v>
+        <v>12.10962959912422</v>
       </c>
       <c r="R7" t="n">
-        <v>40.29501189884586</v>
+        <v>39.85081002223924</v>
       </c>
       <c r="S7" t="n">
-        <v>166.0022870397414</v>
+        <v>165.8301206431674</v>
       </c>
       <c r="T7" t="n">
-        <v>240.3098339603297</v>
+        <v>240.2676231067096</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3749939678559</v>
+        <v>277.3744551058947</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -23010,7 +23010,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>220.8955075989595</v>
       </c>
     </row>
     <row r="8">
@@ -23029,22 +23029,22 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>400.6990851421942</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>397.0104453155786</v>
       </c>
       <c r="G8" t="n">
-        <v>376.0986545356089</v>
+        <v>399.961149212524</v>
       </c>
       <c r="H8" t="n">
-        <v>267.6012707536137</v>
+        <v>291.4637654305288</v>
       </c>
       <c r="I8" t="n">
-        <v>21.65122101284321</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.027774177190928</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.01919626068103</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>95.70068803234791</v>
@@ -23083,10 +23083,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>384.2450476650297</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>383.740304167015</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.6377393258621</v>
+        <v>106.6196540144352</v>
       </c>
       <c r="C9" t="n">
         <v>116.3308444476703</v>
@@ -23108,22 +23108,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>79.79241971287699</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
         <v>68.84687733700973</v>
       </c>
       <c r="G9" t="n">
-        <v>75.61708666632472</v>
+        <v>69.07175403124202</v>
       </c>
       <c r="H9" t="n">
-        <v>27.25121589670749</v>
+        <v>51.11371057362263</v>
       </c>
       <c r="I9" t="n">
         <v>10.00995232957613</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.700923269594416</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>138.2959597602405</v>
+        <v>114.4334650833254</v>
       </c>
     </row>
     <row r="10">
@@ -23196,7 +23196,7 @@
         <v>164.4443446983998</v>
       </c>
       <c r="H10" t="n">
-        <v>141.0241776843491</v>
+        <v>137.5443930882748</v>
       </c>
       <c r="I10" t="n">
         <v>94.25831015433721</v>
@@ -23205,7 +23205,7 @@
         <v>10.02784554495552</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05117107693675749</v>
+        <v>3.530955673011043</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>247.1916007807698</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23269,16 +23269,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>229.6169455921248</v>
       </c>
       <c r="G11" t="n">
-        <v>399.7379713523258</v>
+        <v>208.1435512582262</v>
       </c>
       <c r="H11" t="n">
-        <v>289.1781451697731</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I11" t="n">
-        <v>13.04715655754853</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.521342075077799</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T11" t="n">
-        <v>128.1813011274509</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1338305186065</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V11" t="n">
-        <v>265.8208402570115</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>210.0279029442896</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>116.3308444476703</v>
@@ -23345,19 +23345,19 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>92.81483802569352</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>49.96045477193429</v>
+        <v>48.21166394479565</v>
       </c>
       <c r="I12" t="n">
-        <v>5.89866348159544</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.146189892547326</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>74.9684294176455</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T12" t="n">
-        <v>126.3746755651847</v>
+        <v>138.5285367888426</v>
       </c>
       <c r="U12" t="n">
-        <v>94.80720233321087</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V12" t="n">
-        <v>114.8297270041249</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>106.4624829271134</v>
+        <v>53.8732845119967</v>
       </c>
       <c r="X12" t="n">
         <v>161.8425727710037</v>
@@ -23421,25 +23421,25 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>114.0919620119342</v>
       </c>
       <c r="G13" t="n">
-        <v>164.3442347934871</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1341096206706</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I13" t="n">
-        <v>14.52320307450772</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J13" t="n">
-        <v>2.950075267626378</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.671637333691525</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.31988941157481</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S13" t="n">
-        <v>164.0739995734861</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8370665585874</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U13" t="n">
-        <v>277.368958639323</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>224.3938862482457</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>227.8037002064807</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23509,7 +23509,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>399.3995456585952</v>
+        <v>208.1435512582262</v>
       </c>
       <c r="H14" t="n">
         <v>285.7122430338547</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T14" t="n">
-        <v>23.53752872077779</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U14" t="n">
         <v>255.6996702193238</v>
       </c>
       <c r="V14" t="n">
-        <v>162.658526324644</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>239.1445189760851</v>
       </c>
       <c r="Y14" t="n">
-        <v>315.728764524007</v>
+        <v>210.0279029442895</v>
       </c>
     </row>
     <row r="15">
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.63376431607153</v>
       </c>
       <c r="H15" t="n">
         <v>48.21166394479565</v>
@@ -23630,10 +23630,10 @@
         <v>138.5285367888426</v>
       </c>
       <c r="U15" t="n">
-        <v>182.8889700571583</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>202.9234074721264</v>
+        <v>127.6595539041006</v>
       </c>
       <c r="W15" t="n">
         <v>194.556163395115</v>
@@ -23642,7 +23642,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
-        <v>113.0905698348683</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="16">
@@ -23661,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.1924286780001</v>
+        <v>111.0037528509271</v>
       </c>
       <c r="H16" t="n">
-        <v>7.732124009911729</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>262.9874812323754</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.2231262443502</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>273.6642377077183</v>
+        <v>229.7068797488056</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>56.09548964508596</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.4328844205746</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>43.06413865651469</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>59.91349501407201</v>
+        <v>61.70507848721772</v>
       </c>
       <c r="T18" t="n">
-        <v>124.9224355072124</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>99.98294878974666</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>161.1529964088307</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.70234421122223</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6647274284546</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.0926714115636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>70.81309261816692</v>
+        <v>73.24487755513479</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.766767343841444</v>
+        <v>8.402682790710585</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2320394028745</v>
+        <v>153.6412690655611</v>
       </c>
       <c r="T19" t="n">
-        <v>236.9337169079941</v>
+        <v>237.2792244413601</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3318946012303</v>
+        <v>277.3363053356988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23958,7 +23958,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>328.6062097805426</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>60.20342017356935</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.4328844205746</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6055566661842</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>125.1848014813693</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>92.10077804644027</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>43.06413865651469</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>59.913495014072</v>
+        <v>61.70507848721772</v>
       </c>
       <c r="T21" t="n">
-        <v>124.9224355072117</v>
+        <v>53.46875848962215</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>161.1529964088307</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6647274284546</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.0926714115635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>70.81309261816691</v>
+        <v>73.24487755513479</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.76676734384143</v>
+        <v>8.402682790710585</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2320394028745</v>
+        <v>153.6412690655611</v>
       </c>
       <c r="T22" t="n">
-        <v>236.9337169079941</v>
+        <v>237.2792244413601</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3318946012303</v>
+        <v>277.3363053356988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>194.117719961405</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>18.37984445389986</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>319.9181751348469</v>
       </c>
     </row>
     <row r="24">
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5190049372437429</v>
+        <v>0.5190049372437358</v>
       </c>
       <c r="S25" t="n">
         <v>150.5856664684936</v>
@@ -24420,16 +24420,16 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U25" t="n">
-        <v>246.2037286568571</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>6.065471068204033</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24445,22 +24445,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>346.3696997870427</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>213.695048496143</v>
       </c>
       <c r="G26" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.4521331005671</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5702563680571</v>
+        <v>121.6317239880852</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>67.97209018366931</v>
@@ -24651,7 +24651,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S28" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.5300678317505</v>
@@ -24666,10 +24666,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>39.25539850364191</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>133.504252458271</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>67.97209018366931</v>
@@ -24891,16 +24891,16 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.4664443446542</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>242.595538899955</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>312.9363330966283</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.29180056255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>133.2527378018481</v>
@@ -25125,10 +25125,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S34" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.5300678317505</v>
+        <v>54.65621652811447</v>
       </c>
       <c r="U34" t="n">
         <v>277.3267416342995</v>
@@ -25137,13 +25137,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>102.3262839566068</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>75.12342225452615</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>49.86642430187521</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>67.97209018366931</v>
@@ -25362,16 +25362,16 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S37" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.5300678317505</v>
+        <v>140.5735781148419</v>
       </c>
       <c r="U37" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -25380,7 +25380,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>79.88413187997071</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>294.1179535616257</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>62.47784294960076</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.7218148893222</v>
@@ -25450,16 +25450,16 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,16 +25557,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>73.59492310314261</v>
       </c>
       <c r="G40" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H40" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>67.97209018366931</v>
@@ -25599,7 +25599,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S40" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.5300678317505</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>6.065471068204261</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>219.1530212211541</v>
       </c>
       <c r="G41" t="n">
-        <v>25.40650671578271</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.63052885781656</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>33.54392041331815</v>
       </c>
       <c r="G43" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>67.97209018366931</v>
@@ -25836,7 +25836,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S43" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>236.5300678317505</v>
@@ -25851,7 +25851,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>271.2303306258673</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25876,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
-        <v>28.91176367013742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>133.2527378018481</v>
@@ -26076,19 +26076,19 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>74.21370654280608</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V46" t="n">
-        <v>210.6299166993955</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>59323.1812916131</v>
+        <v>59323.18129161315</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>59323.18129161309</v>
+        <v>63815.62014862106</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>107013.7039810559</v>
+        <v>171373.0574526115</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>394949.0832887274</v>
+        <v>360688.9176877985</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>394949.0832887275</v>
+        <v>360688.9176877986</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>434974.5034642026</v>
+        <v>434974.5034642025</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434974.5034642026</v>
+        <v>434974.5034642025</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>434974.5034642026</v>
+        <v>434974.5034642025</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>434974.5034642026</v>
+        <v>434974.5034642025</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434974.5034642026</v>
+        <v>434974.5034642027</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22100.7930302088</v>
+        <v>22100.79303020881</v>
       </c>
       <c r="C2" t="n">
-        <v>22100.7930302088</v>
+        <v>23774.44672203529</v>
       </c>
       <c r="D2" t="n">
-        <v>23883.98217394541</v>
+        <v>23883.9821739454</v>
       </c>
       <c r="E2" t="n">
-        <v>39867.85050274628</v>
+        <v>63844.86454116899</v>
       </c>
       <c r="F2" t="n">
-        <v>63844.86454116897</v>
+        <v>63844.86454116898</v>
       </c>
       <c r="G2" t="n">
-        <v>147137.8937742318</v>
+        <v>134374.3026680033</v>
       </c>
       <c r="H2" t="n">
-        <v>147137.8937742317</v>
+        <v>134374.3026680033</v>
       </c>
       <c r="I2" t="n">
         <v>162049.324819997</v>
@@ -26352,10 +26352,10 @@
         <v>162049.324819997</v>
       </c>
       <c r="O2" t="n">
-        <v>162049.3248199971</v>
+        <v>162049.324819997</v>
       </c>
       <c r="P2" t="n">
-        <v>162049.3248199971</v>
+        <v>162049.324819997</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80658.96448328666</v>
+        <v>80658.96448328669</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6698.167324106118</v>
       </c>
       <c r="D3" t="n">
-        <v>6757.86389138161</v>
+        <v>422.390445424325</v>
       </c>
       <c r="E3" t="n">
-        <v>63779.3323923321</v>
+        <v>162214.5188946642</v>
       </c>
       <c r="F3" t="n">
-        <v>96101.02591015321</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>328947.8683998617</v>
+        <v>278540.8160188844</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57052.63239361883</v>
+        <v>105887.4135203386</v>
       </c>
       <c r="J3" t="n">
-        <v>4766.710787430403</v>
+        <v>4766.71078743037</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1361.838499300762</v>
       </c>
       <c r="L3" t="n">
-        <v>1428.493034927578</v>
+        <v>89.28587775765965</v>
       </c>
       <c r="M3" t="n">
-        <v>16006.66842388192</v>
+        <v>41715.12970508359</v>
       </c>
       <c r="N3" t="n">
-        <v>25267.23606451292</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>89055.82403434452</v>
+        <v>75409.15835212909</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.22273493796323</v>
+        <v>13.22273493796324</v>
       </c>
       <c r="C4" t="n">
-        <v>13.22273493796323</v>
+        <v>17.15222569169689</v>
       </c>
       <c r="D4" t="n">
         <v>17.41872404354271</v>
       </c>
       <c r="E4" t="n">
-        <v>62.45231285262346</v>
+        <v>134.583956678369</v>
       </c>
       <c r="F4" t="n">
         <v>134.583956678369</v>
       </c>
       <c r="G4" t="n">
-        <v>394.0103111479889</v>
+        <v>354.2565413413396</v>
       </c>
       <c r="H4" t="n">
-        <v>394.0103111479891</v>
+        <v>354.2565413413396</v>
       </c>
       <c r="I4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539643</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
@@ -26472,40 +26472,40 @@
         <v>36421.91313065494</v>
       </c>
       <c r="C5" t="n">
-        <v>36421.91313065494</v>
+        <v>36863.06036917747</v>
       </c>
       <c r="D5" t="n">
-        <v>36892.4719640909</v>
+        <v>36892.47196409089</v>
       </c>
       <c r="E5" t="n">
-        <v>8380.365801579239</v>
+        <v>16487.83241934473</v>
       </c>
       <c r="F5" t="n">
         <v>16487.83241934473</v>
       </c>
       <c r="G5" t="n">
-        <v>45367.03890519306</v>
+        <v>40941.66998234696</v>
       </c>
       <c r="H5" t="n">
-        <v>45367.03890519307</v>
+        <v>40941.66998234696</v>
       </c>
       <c r="I5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="J5" t="n">
         <v>50537.10295659395</v>
       </c>
       <c r="K5" t="n">
+        <v>50537.10295659396</v>
+      </c>
+      <c r="L5" t="n">
         <v>50537.10295659397</v>
-      </c>
-      <c r="L5" t="n">
-        <v>50537.10295659396</v>
       </c>
       <c r="M5" t="n">
         <v>50537.10295659397</v>
       </c>
       <c r="N5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659396</v>
       </c>
       <c r="O5" t="n">
         <v>50537.10295659397</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-94993.30731867075</v>
+        <v>-96333.09402538181</v>
       </c>
       <c r="C6" t="n">
-        <v>-14334.3428353841</v>
+        <v>-21134.91120000983</v>
       </c>
       <c r="D6" t="n">
-        <v>-19783.77240557064</v>
+        <v>-14778.70046030471</v>
       </c>
       <c r="E6" t="n">
-        <v>-32354.30000401768</v>
+        <v>-116112.151796698</v>
       </c>
       <c r="F6" t="n">
-        <v>-48878.57774500734</v>
+        <v>46102.36709796623</v>
       </c>
       <c r="G6" t="n">
-        <v>-227571.023841971</v>
+        <v>-186211.3133726605</v>
       </c>
       <c r="H6" t="n">
-        <v>101376.8445578905</v>
+        <v>92329.50264622392</v>
       </c>
       <c r="I6" t="n">
-        <v>54019.13567793026</v>
+        <v>4581.139064445644</v>
       </c>
       <c r="J6" t="n">
-        <v>106305.0572841187</v>
+        <v>105701.8417973539</v>
       </c>
       <c r="K6" t="n">
-        <v>111071.7680715491</v>
+        <v>109106.7140854835</v>
       </c>
       <c r="L6" t="n">
-        <v>109643.2750366215</v>
+        <v>110379.2667070267</v>
       </c>
       <c r="M6" t="n">
-        <v>95065.09964766719</v>
+        <v>68753.42287970074</v>
       </c>
       <c r="N6" t="n">
-        <v>85804.53200703615</v>
+        <v>110468.5525847843</v>
       </c>
       <c r="O6" t="n">
-        <v>22015.94403720465</v>
+        <v>35059.39423265521</v>
       </c>
       <c r="P6" t="n">
-        <v>111071.7680715491</v>
+        <v>110468.5525847843</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975662</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="C3" t="n">
-        <v>77.36880956975662</v>
+        <v>82.84723950768694</v>
       </c>
       <c r="D3" t="n">
         <v>83.21249026304839</v>
       </c>
       <c r="E3" t="n">
-        <v>138.7279829873737</v>
+        <v>222.9113743028576</v>
       </c>
       <c r="F3" t="n">
         <v>222.9113743028576</v>
       </c>
       <c r="G3" t="n">
-        <v>515.5457035962972</v>
+        <v>470.7032364998522</v>
       </c>
       <c r="H3" t="n">
-        <v>515.5457035962975</v>
+        <v>470.7032364998522</v>
       </c>
       <c r="I3" t="n">
-        <v>567.9342007257877</v>
+        <v>567.9342007257878</v>
       </c>
       <c r="J3" t="n">
         <v>567.9342007257877</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C4" t="n">
-        <v>18.21830727030011</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="D4" t="n">
-        <v>23.86249467691515</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="E4" t="n">
-        <v>88.09368046800152</v>
+        <v>191.255994400369</v>
       </c>
       <c r="F4" t="n">
         <v>191.255994400369</v>
       </c>
       <c r="G4" t="n">
-        <v>561.3181343222661</v>
+        <v>504.6108458330623</v>
       </c>
       <c r="H4" t="n">
-        <v>561.3181343222661</v>
+        <v>504.6108458330623</v>
       </c>
       <c r="I4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="J4" t="n">
         <v>627.5680490258517</v>
       </c>
       <c r="K4" t="n">
+        <v>627.5680490258518</v>
+      </c>
+      <c r="L4" t="n">
         <v>627.5680490258519</v>
-      </c>
-      <c r="L4" t="n">
-        <v>627.5680490258518</v>
       </c>
       <c r="M4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="N4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="O4" t="n">
         <v>627.5680490258519</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975662</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.478429937930301</v>
       </c>
       <c r="D3" t="n">
-        <v>5.843680693291773</v>
+        <v>0.3652507553614583</v>
       </c>
       <c r="E3" t="n">
-        <v>55.51549272432528</v>
+        <v>139.6988840398092</v>
       </c>
       <c r="F3" t="n">
-        <v>84.18339131548393</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>292.6343292934396</v>
+        <v>247.7918621969945</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>52.38849712949025</v>
+        <v>97.23096422593568</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.291405688744259</v>
       </c>
       <c r="D4" t="n">
-        <v>5.644187406615039</v>
+        <v>0.3527817178707693</v>
       </c>
       <c r="E4" t="n">
-        <v>64.23118579108638</v>
+        <v>167.3934997234538</v>
       </c>
       <c r="F4" t="n">
-        <v>103.1623139323675</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>370.0621399218971</v>
+        <v>313.3548514326932</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>66.24991470358559</v>
+        <v>122.9572031927895</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727029999</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.291405688744373</v>
       </c>
       <c r="L4" t="n">
-        <v>5.644187406614925</v>
+        <v>0.352781717870883</v>
       </c>
       <c r="M4" t="n">
-        <v>64.23118579108649</v>
+        <v>167.3934997234538</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1623139323673</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>370.0621399218974</v>
+        <v>313.3548514326934</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.291405688744259</v>
       </c>
       <c r="L4" t="n">
-        <v>5.644187406615039</v>
+        <v>0.3527817178707693</v>
       </c>
       <c r="M4" t="n">
-        <v>64.23118579108638</v>
+        <v>167.3934997234538</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1623139323675</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>370.0621399218971</v>
+        <v>313.3548514326932</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,10 +31041,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3110303902301771</v>
+        <v>0.3110303902301772</v>
       </c>
       <c r="H2" t="n">
-        <v>3.185339983944802</v>
+        <v>3.185339983944803</v>
       </c>
       <c r="I2" t="n">
         <v>11.99099911934892</v>
@@ -31056,19 +31056,19 @@
         <v>39.56423200124193</v>
       </c>
       <c r="L2" t="n">
-        <v>49.08292830624872</v>
+        <v>49.08292830624873</v>
       </c>
       <c r="M2" t="n">
-        <v>54.61421500850463</v>
+        <v>54.61421500850464</v>
       </c>
       <c r="N2" t="n">
-        <v>55.49793010474612</v>
+        <v>55.49793010474614</v>
       </c>
       <c r="O2" t="n">
-        <v>52.4051216618948</v>
+        <v>52.40512166189481</v>
       </c>
       <c r="P2" t="n">
-        <v>44.72655890308729</v>
+        <v>44.7265589030873</v>
       </c>
       <c r="Q2" t="n">
         <v>33.58778305296907</v>
@@ -31077,7 +31077,7 @@
         <v>19.53776275029638</v>
       </c>
       <c r="S2" t="n">
-        <v>7.087605017370168</v>
+        <v>7.08760501737017</v>
       </c>
       <c r="T2" t="n">
         <v>1.361535533232601</v>
@@ -31126,28 +31126,28 @@
         <v>1.607227534647209</v>
       </c>
       <c r="I3" t="n">
-        <v>5.729671274741411</v>
+        <v>5.729671274741412</v>
       </c>
       <c r="J3" t="n">
-        <v>15.72265591454837</v>
+        <v>15.72265591454838</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>36.13342375236606</v>
+        <v>31.78561213073774</v>
       </c>
       <c r="M3" t="n">
-        <v>36.96727616099979</v>
+        <v>41.3150877826281</v>
       </c>
       <c r="N3" t="n">
-        <v>39.56133548384177</v>
+        <v>39.56133548384178</v>
       </c>
       <c r="O3" t="n">
         <v>39.59458313896781</v>
       </c>
       <c r="P3" t="n">
-        <v>31.77814368913268</v>
+        <v>31.77814368913269</v>
       </c>
       <c r="Q3" t="n">
         <v>21.24284748790752</v>
@@ -31156,10 +31156,10 @@
         <v>10.33238554971203</v>
       </c>
       <c r="S3" t="n">
-        <v>3.091102910640746</v>
+        <v>3.091102910640747</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6707729810811917</v>
+        <v>0.6707729810811918</v>
       </c>
       <c r="U3" t="n">
         <v>0.01094841644855047</v>
@@ -31202,22 +31202,22 @@
         <v>0.1395175254536595</v>
       </c>
       <c r="H4" t="n">
-        <v>1.240437635397082</v>
+        <v>1.240437635397083</v>
       </c>
       <c r="I4" t="n">
-        <v>4.195672492733688</v>
+        <v>4.195672492733689</v>
       </c>
       <c r="J4" t="n">
-        <v>9.863889049573723</v>
+        <v>9.863889049573725</v>
       </c>
       <c r="K4" t="n">
         <v>16.20939977543425</v>
       </c>
       <c r="L4" t="n">
-        <v>20.7424510115377</v>
+        <v>20.74245101153771</v>
       </c>
       <c r="M4" t="n">
-        <v>21.87000628543136</v>
+        <v>21.87000628543137</v>
       </c>
       <c r="N4" t="n">
         <v>21.34998641783138</v>
@@ -31226,22 +31226,22 @@
         <v>19.72016805230453</v>
       </c>
       <c r="P4" t="n">
-        <v>16.87401053304986</v>
+        <v>16.87401053304987</v>
       </c>
       <c r="Q4" t="n">
         <v>11.68269024503325</v>
       </c>
       <c r="R4" t="n">
-        <v>6.273215280852723</v>
+        <v>6.273215280852725</v>
       </c>
       <c r="S4" t="n">
-        <v>2.431409966315137</v>
+        <v>2.431409966315138</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5961203360292721</v>
+        <v>0.5961203360292722</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007610046842926889</v>
+        <v>0.00761004684292689</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3110303902301771</v>
+        <v>0.3330542291766306</v>
       </c>
       <c r="H5" t="n">
-        <v>3.185339983944802</v>
+        <v>3.41089162455517</v>
       </c>
       <c r="I5" t="n">
-        <v>11.99099911934892</v>
+        <v>12.84007317033207</v>
       </c>
       <c r="J5" t="n">
-        <v>26.39831558279852</v>
+        <v>28.26756138358008</v>
       </c>
       <c r="K5" t="n">
-        <v>39.56423200124193</v>
+        <v>42.36574690462687</v>
       </c>
       <c r="L5" t="n">
-        <v>49.08292830624872</v>
+        <v>52.55845527079118</v>
       </c>
       <c r="M5" t="n">
-        <v>54.61421500850463</v>
+        <v>58.48140841891108</v>
       </c>
       <c r="N5" t="n">
-        <v>55.49793010474612</v>
+        <v>59.4276987475592</v>
       </c>
       <c r="O5" t="n">
-        <v>52.4051216618948</v>
+        <v>56.11589075618407</v>
       </c>
       <c r="P5" t="n">
-        <v>44.72655890308729</v>
+        <v>47.89361447338599</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.58778305296907</v>
+        <v>35.9661098909979</v>
       </c>
       <c r="R5" t="n">
-        <v>19.53776275029638</v>
+        <v>20.92121772351654</v>
       </c>
       <c r="S5" t="n">
-        <v>7.087605017370168</v>
+        <v>7.589473247362479</v>
       </c>
       <c r="T5" t="n">
-        <v>1.361535533232601</v>
+        <v>1.457944888220701</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02488243121841417</v>
+        <v>0.02664433833413045</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1664159300179671</v>
+        <v>0.1781997227146474</v>
       </c>
       <c r="H6" t="n">
-        <v>1.607227534647209</v>
+        <v>1.721034164112516</v>
       </c>
       <c r="I6" t="n">
-        <v>5.729671274741411</v>
+        <v>6.135385189956062</v>
       </c>
       <c r="J6" t="n">
-        <v>15.72265591454837</v>
+        <v>16.83596590787816</v>
       </c>
       <c r="K6" t="n">
-        <v>26.87252322575217</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>36.13342375236606</v>
+        <v>38.69200558328342</v>
       </c>
       <c r="M6" t="n">
-        <v>32.49398676858095</v>
+        <v>45.15174553168937</v>
       </c>
       <c r="N6" t="n">
-        <v>39.56133548384177</v>
+        <v>44.85274117258604</v>
       </c>
       <c r="O6" t="n">
-        <v>39.59458313896781</v>
+        <v>42.26176726229852</v>
       </c>
       <c r="P6" t="n">
-        <v>31.77814368913268</v>
+        <v>34.02833126118561</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.24284748790752</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>10.33238554971203</v>
+        <v>11.06401436293223</v>
       </c>
       <c r="S6" t="n">
-        <v>3.091102910640746</v>
+        <v>3.309981691651452</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6707729810811917</v>
+        <v>0.7182699349770214</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01094841644855047</v>
+        <v>0.01172366596806891</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1395175254536595</v>
+        <v>0.1493966614073043</v>
       </c>
       <c r="H7" t="n">
-        <v>1.240437635397082</v>
+        <v>1.32827213505767</v>
       </c>
       <c r="I7" t="n">
-        <v>4.195672492733688</v>
+        <v>4.492765053957843</v>
       </c>
       <c r="J7" t="n">
-        <v>9.863889049573723</v>
+        <v>10.56234396149641</v>
       </c>
       <c r="K7" t="n">
-        <v>16.20939977543425</v>
+        <v>17.35717575259408</v>
       </c>
       <c r="L7" t="n">
-        <v>20.7424510115377</v>
+        <v>22.21120909686413</v>
       </c>
       <c r="M7" t="n">
-        <v>21.87000628543136</v>
+        <v>23.41860575132862</v>
       </c>
       <c r="N7" t="n">
-        <v>21.34998641783138</v>
+        <v>22.86176364971959</v>
       </c>
       <c r="O7" t="n">
-        <v>19.72016805230453</v>
+        <v>21.1165390141888</v>
       </c>
       <c r="P7" t="n">
-        <v>16.87401053304986</v>
+        <v>18.06884712147978</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.68269024503325</v>
+        <v>12.50993316566073</v>
       </c>
       <c r="R7" t="n">
-        <v>6.273215280852723</v>
+        <v>6.717417157459335</v>
       </c>
       <c r="S7" t="n">
-        <v>2.431409966315137</v>
+        <v>2.603576362889111</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5961203360292721</v>
+        <v>0.638331189649391</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007610046842926889</v>
+        <v>0.00814890880403479</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>16.91019106373892</v>
       </c>
       <c r="K9" t="n">
-        <v>28.90220994353446</v>
+        <v>22.49997188159401</v>
       </c>
       <c r="L9" t="n">
         <v>38.86258802332275</v>
@@ -31615,7 +31615,7 @@
         <v>45.35080719336137</v>
       </c>
       <c r="N9" t="n">
-        <v>38.903570281196</v>
+        <v>45.20552289045681</v>
       </c>
       <c r="O9" t="n">
         <v>42.58516942735459</v>
@@ -31624,7 +31624,7 @@
         <v>34.17835284030756</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>22.84732374165812</v>
       </c>
       <c r="R9" t="n">
         <v>11.1127925675822</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5577004341200947</v>
+        <v>0.8961261278506831</v>
       </c>
       <c r="H11" t="n">
-        <v>5.711549570932422</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I11" t="n">
-        <v>21.50074598641497</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
-        <v>47.33412722040044</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K11" t="n">
-        <v>70.94158659670406</v>
+        <v>113.9906039355864</v>
       </c>
       <c r="L11" t="n">
-        <v>88.00931125740694</v>
+        <v>141.4154239207968</v>
       </c>
       <c r="M11" t="n">
-        <v>97.92731635269016</v>
+        <v>157.3519069469614</v>
       </c>
       <c r="N11" t="n">
-        <v>99.51188271113389</v>
+        <v>159.8980253077171</v>
       </c>
       <c r="O11" t="n">
-        <v>93.96624901935219</v>
+        <v>150.9871711239019</v>
       </c>
       <c r="P11" t="n">
-        <v>80.19801955201234</v>
+        <v>128.8640573425882</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.22537275508643</v>
+        <v>96.77154038893553</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479644</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S11" t="n">
-        <v>12.70859864251167</v>
+        <v>20.42047413839746</v>
       </c>
       <c r="T11" t="n">
-        <v>2.441333650360716</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04461603472960757</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2983960388785019</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H12" t="n">
-        <v>2.881877533379216</v>
+        <v>4.630668360517854</v>
       </c>
       <c r="I12" t="n">
-        <v>10.27372326840456</v>
+        <v>16.50805932337201</v>
       </c>
       <c r="J12" t="n">
-        <v>28.19188190123601</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K12" t="n">
-        <v>48.18441650609563</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L12" t="n">
-        <v>64.78989431877297</v>
+        <v>104.1059206119148</v>
       </c>
       <c r="M12" t="n">
-        <v>75.60675072811864</v>
+        <v>121.4866989950574</v>
       </c>
       <c r="N12" t="n">
-        <v>77.6078364449837</v>
+        <v>124.7020904225015</v>
       </c>
       <c r="O12" t="n">
-        <v>70.9960084256232</v>
+        <v>114.0780502057275</v>
       </c>
       <c r="P12" t="n">
-        <v>56.98055588022902</v>
+        <v>91.55769258865864</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.08999261192947</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R12" t="n">
-        <v>18.52672950159682</v>
+        <v>29.76918315689862</v>
       </c>
       <c r="S12" t="n">
-        <v>5.54257554671252</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T12" t="n">
-        <v>1.2027454374094</v>
+        <v>1.932599556455906</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01963131834726987</v>
+        <v>0.03154406240134779</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2501652152231328</v>
+        <v>0.4019713307100711</v>
       </c>
       <c r="H13" t="n">
-        <v>2.224196186256583</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I13" t="n">
-        <v>7.523150290528397</v>
+        <v>12.08837419989923</v>
       </c>
       <c r="J13" t="n">
-        <v>17.68668071627549</v>
+        <v>28.41937308120202</v>
       </c>
       <c r="K13" t="n">
-        <v>29.06464955046943</v>
+        <v>46.70176005886097</v>
       </c>
       <c r="L13" t="n">
-        <v>37.19274481599196</v>
+        <v>59.76217402211366</v>
       </c>
       <c r="M13" t="n">
-        <v>39.21453460084071</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N13" t="n">
-        <v>38.28210061682726</v>
+        <v>61.51257645311482</v>
       </c>
       <c r="O13" t="n">
-        <v>35.35971605717519</v>
+        <v>56.81682045345624</v>
       </c>
       <c r="P13" t="n">
-        <v>30.25634566662325</v>
+        <v>48.61660530697075</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.94792543109342</v>
+        <v>33.6596175197315</v>
       </c>
       <c r="R13" t="n">
-        <v>11.24833776812377</v>
+        <v>18.07409274265465</v>
       </c>
       <c r="S13" t="n">
-        <v>4.359697432570414</v>
+        <v>7.005264008829145</v>
       </c>
       <c r="T13" t="n">
-        <v>1.068887737771567</v>
+        <v>1.717513867579394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01364537537580726</v>
+        <v>0.02192570894782208</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.072545542095666</v>
+        <v>1.892274317587344</v>
       </c>
       <c r="H17" t="n">
-        <v>21.22545703298724</v>
+        <v>19.37925435499139</v>
       </c>
       <c r="I17" t="n">
-        <v>79.90181201164323</v>
+        <v>72.95190562878615</v>
       </c>
       <c r="J17" t="n">
-        <v>175.9047122034422</v>
+        <v>160.604417362329</v>
       </c>
       <c r="K17" t="n">
-        <v>263.6355650003517</v>
+        <v>240.7043892258013</v>
       </c>
       <c r="L17" t="n">
-        <v>327.063230634262</v>
+        <v>298.615079372665</v>
       </c>
       <c r="M17" t="n">
-        <v>363.9208624185058</v>
+        <v>332.266812768059</v>
       </c>
       <c r="N17" t="n">
-        <v>369.8094824399852</v>
+        <v>337.643237172904</v>
       </c>
       <c r="O17" t="n">
-        <v>349.2006077057713</v>
+        <v>318.8269344273949</v>
       </c>
       <c r="P17" t="n">
-        <v>298.0346396352846</v>
+        <v>272.1114122119573</v>
       </c>
       <c r="Q17" t="n">
-        <v>223.8116024089835</v>
+        <v>204.3443382133604</v>
       </c>
       <c r="R17" t="n">
-        <v>130.189538908667</v>
+        <v>118.8655766021461</v>
       </c>
       <c r="S17" t="n">
-        <v>47.22813154050503</v>
+        <v>43.12020101202165</v>
       </c>
       <c r="T17" t="n">
-        <v>9.072568110523781</v>
+        <v>8.283430825238602</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1658036433676532</v>
+        <v>0.1513819454069875</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.108909626603356</v>
+        <v>1.012456018131757</v>
       </c>
       <c r="H18" t="n">
-        <v>10.7097324464061</v>
+        <v>9.778193648798817</v>
       </c>
       <c r="I18" t="n">
-        <v>38.17956389840504</v>
+        <v>34.85868308041358</v>
       </c>
       <c r="J18" t="n">
-        <v>104.7676415204513</v>
+        <v>95.65489073059733</v>
       </c>
       <c r="K18" t="n">
-        <v>179.0645865028762</v>
+        <v>163.4894439454251</v>
       </c>
       <c r="L18" t="n">
-        <v>240.7744344956104</v>
+        <v>219.8317332351432</v>
       </c>
       <c r="M18" t="n">
-        <v>280.972408459982</v>
+        <v>256.5332638924194</v>
       </c>
       <c r="N18" t="n">
-        <v>288.4089120524229</v>
+        <v>263.3229360491013</v>
       </c>
       <c r="O18" t="n">
-        <v>263.8378092734749</v>
+        <v>240.8890421736555</v>
       </c>
       <c r="P18" t="n">
-        <v>211.7531022941094</v>
+        <v>193.3346934974582</v>
       </c>
       <c r="Q18" t="n">
-        <v>141.5513411081758</v>
+        <v>129.2391225952047</v>
       </c>
       <c r="R18" t="n">
-        <v>68.84966962367157</v>
+        <v>62.86108505558406</v>
       </c>
       <c r="S18" t="n">
-        <v>20.59750995028601</v>
+        <v>18.80592647714031</v>
       </c>
       <c r="T18" t="n">
-        <v>4.469683977405632</v>
+        <v>4.080908248522301</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07295458069758927</v>
+        <v>0.06660894856129985</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9296725802556178</v>
+        <v>0.8488091149997333</v>
       </c>
       <c r="H19" t="n">
-        <v>8.265634395363591</v>
+        <v>7.546684676997634</v>
       </c>
       <c r="I19" t="n">
-        <v>27.95778995895986</v>
+        <v>25.52600502199199</v>
       </c>
       <c r="J19" t="n">
-        <v>65.72785142407218</v>
+        <v>60.01080443048114</v>
       </c>
       <c r="K19" t="n">
-        <v>108.0110506878799</v>
+        <v>98.61618626996899</v>
       </c>
       <c r="L19" t="n">
-        <v>138.2169579772762</v>
+        <v>126.1947660609604</v>
       </c>
       <c r="M19" t="n">
-        <v>145.7304027395238</v>
+        <v>133.0546869994582</v>
       </c>
       <c r="N19" t="n">
-        <v>142.2652594858439</v>
+        <v>129.8909439344593</v>
       </c>
       <c r="O19" t="n">
-        <v>131.4049934346759</v>
+        <v>119.9753101819623</v>
       </c>
       <c r="P19" t="n">
-        <v>112.4396727974612</v>
+        <v>102.6596042359677</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.84740124304088</v>
+        <v>71.07618871147767</v>
       </c>
       <c r="R19" t="n">
-        <v>41.80145983585714</v>
+        <v>38.165544388988</v>
       </c>
       <c r="S19" t="n">
-        <v>16.20165760318199</v>
+        <v>14.79242794049535</v>
       </c>
       <c r="T19" t="n">
-        <v>3.972237388364912</v>
+        <v>3.626729854998859</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05070941346848831</v>
+        <v>0.04629867899998551</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.072545542095666</v>
+        <v>1.892274317587344</v>
       </c>
       <c r="H20" t="n">
-        <v>21.22545703298725</v>
+        <v>19.37925435499139</v>
       </c>
       <c r="I20" t="n">
-        <v>79.90181201164327</v>
+        <v>72.95190562878615</v>
       </c>
       <c r="J20" t="n">
-        <v>175.9047122034422</v>
+        <v>160.604417362329</v>
       </c>
       <c r="K20" t="n">
-        <v>263.6355650003518</v>
+        <v>240.7043892258013</v>
       </c>
       <c r="L20" t="n">
-        <v>327.0632306342622</v>
+        <v>298.615079372665</v>
       </c>
       <c r="M20" t="n">
-        <v>363.920862418506</v>
+        <v>332.266812768059</v>
       </c>
       <c r="N20" t="n">
-        <v>369.8094824399853</v>
+        <v>337.643237172904</v>
       </c>
       <c r="O20" t="n">
-        <v>349.2006077057715</v>
+        <v>318.8269344273949</v>
       </c>
       <c r="P20" t="n">
-        <v>298.0346396352847</v>
+        <v>272.1114122119573</v>
       </c>
       <c r="Q20" t="n">
-        <v>223.8116024089836</v>
+        <v>204.3443382133604</v>
       </c>
       <c r="R20" t="n">
-        <v>130.189538908667</v>
+        <v>118.8655766021461</v>
       </c>
       <c r="S20" t="n">
-        <v>47.22813154050505</v>
+        <v>43.12020101202165</v>
       </c>
       <c r="T20" t="n">
-        <v>9.072568110523786</v>
+        <v>8.283430825238602</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1658036433676533</v>
+        <v>0.1513819454069875</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.108909626603357</v>
+        <v>1.012456018131757</v>
       </c>
       <c r="H21" t="n">
-        <v>10.70973244640611</v>
+        <v>9.778193648798817</v>
       </c>
       <c r="I21" t="n">
-        <v>38.17956389840506</v>
+        <v>34.85868308041358</v>
       </c>
       <c r="J21" t="n">
-        <v>104.7676415204514</v>
+        <v>95.65489073059733</v>
       </c>
       <c r="K21" t="n">
-        <v>179.0645865028763</v>
+        <v>163.4894439454251</v>
       </c>
       <c r="L21" t="n">
-        <v>240.7744344956105</v>
+        <v>219.8317332351432</v>
       </c>
       <c r="M21" t="n">
-        <v>280.9724084599821</v>
+        <v>256.5332638924194</v>
       </c>
       <c r="N21" t="n">
-        <v>288.4089120524231</v>
+        <v>263.3229360491013</v>
       </c>
       <c r="O21" t="n">
-        <v>263.837809273475</v>
+        <v>240.8890421736555</v>
       </c>
       <c r="P21" t="n">
-        <v>211.7531022941095</v>
+        <v>193.3346934974582</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.5513411081759</v>
+        <v>129.2391225952047</v>
       </c>
       <c r="R21" t="n">
-        <v>68.8496696236716</v>
+        <v>62.86108505558406</v>
       </c>
       <c r="S21" t="n">
-        <v>20.59750995028602</v>
+        <v>18.80592647714031</v>
       </c>
       <c r="T21" t="n">
-        <v>4.469683977405635</v>
+        <v>4.080908248522301</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0729545806975893</v>
+        <v>0.06660894856129985</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9296725802556183</v>
+        <v>0.8488091149997333</v>
       </c>
       <c r="H22" t="n">
-        <v>8.265634395363595</v>
+        <v>7.546684676997634</v>
       </c>
       <c r="I22" t="n">
-        <v>27.95778995895988</v>
+        <v>25.52600502199199</v>
       </c>
       <c r="J22" t="n">
-        <v>65.72785142407221</v>
+        <v>60.01080443048114</v>
       </c>
       <c r="K22" t="n">
-        <v>108.01105068788</v>
+        <v>98.61618626996899</v>
       </c>
       <c r="L22" t="n">
-        <v>138.2169579772762</v>
+        <v>126.1947660609604</v>
       </c>
       <c r="M22" t="n">
-        <v>145.7304027395239</v>
+        <v>133.0546869994582</v>
       </c>
       <c r="N22" t="n">
-        <v>142.2652594858439</v>
+        <v>129.8909439344593</v>
       </c>
       <c r="O22" t="n">
-        <v>131.404993434676</v>
+        <v>119.9753101819623</v>
       </c>
       <c r="P22" t="n">
-        <v>112.4396727974613</v>
+        <v>102.6596042359677</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.84740124304092</v>
+        <v>71.07618871147767</v>
       </c>
       <c r="R22" t="n">
-        <v>41.80145983585715</v>
+        <v>38.165544388988</v>
       </c>
       <c r="S22" t="n">
-        <v>16.201657603182</v>
+        <v>14.79242794049535</v>
       </c>
       <c r="T22" t="n">
-        <v>3.972237388364913</v>
+        <v>3.626729854998859</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05070941346848833</v>
+        <v>0.04629867899998551</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.283152565731808</v>
+        <v>2.283152565731809</v>
       </c>
       <c r="H23" t="n">
         <v>23.38233621380089</v>
       </c>
       <c r="I23" t="n">
-        <v>88.02123929037562</v>
+        <v>88.02123929037563</v>
       </c>
       <c r="J23" t="n">
-        <v>193.7797200757802</v>
+        <v>193.7797200757803</v>
       </c>
       <c r="K23" t="n">
-        <v>290.4255681832077</v>
+        <v>290.4255681832078</v>
       </c>
       <c r="L23" t="n">
-        <v>360.2985985167226</v>
+        <v>360.2985985167227</v>
       </c>
       <c r="M23" t="n">
-        <v>400.9016129575556</v>
+        <v>400.9016129575558</v>
       </c>
       <c r="N23" t="n">
-        <v>407.3886201849412</v>
+        <v>407.3886201849413</v>
       </c>
       <c r="O23" t="n">
-        <v>384.6855218594455</v>
+        <v>384.6855218594456</v>
       </c>
       <c r="P23" t="n">
-        <v>328.3201928929414</v>
+        <v>328.3201928929415</v>
       </c>
       <c r="Q23" t="n">
         <v>246.554791632671</v>
@@ -32736,10 +32736,10 @@
         <v>143.4190823571508</v>
       </c>
       <c r="S23" t="n">
-        <v>52.02733909161363</v>
+        <v>52.02733909161364</v>
       </c>
       <c r="T23" t="n">
-        <v>9.994500356490995</v>
+        <v>9.994500356490997</v>
       </c>
       <c r="U23" t="n">
         <v>0.1826522052585446</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.22159431854226</v>
+        <v>1.221594318542261</v>
       </c>
       <c r="H24" t="n">
         <v>11.79802933960552</v>
       </c>
       <c r="I24" t="n">
-        <v>42.0592780726173</v>
+        <v>42.05927807261731</v>
       </c>
       <c r="J24" t="n">
         <v>115.4138737531528</v>
       </c>
       <c r="K24" t="n">
-        <v>197.2606930954842</v>
+        <v>197.2606930954843</v>
       </c>
       <c r="L24" t="n">
         <v>265.2413453483974</v>
       </c>
       <c r="M24" t="n">
-        <v>309.5241393955542</v>
+        <v>309.5241393955543</v>
       </c>
       <c r="N24" t="n">
-        <v>317.7163223475329</v>
+        <v>317.716322347533</v>
       </c>
       <c r="O24" t="n">
-        <v>290.6483640261491</v>
+        <v>290.6483640261492</v>
       </c>
       <c r="P24" t="n">
         <v>233.2709361433901</v>
@@ -32812,16 +32812,16 @@
         <v>155.9354431879559</v>
       </c>
       <c r="R24" t="n">
-        <v>75.84600514598353</v>
+        <v>75.84600514598354</v>
       </c>
       <c r="S24" t="n">
-        <v>22.69057867994065</v>
+        <v>22.69057867994066</v>
       </c>
       <c r="T24" t="n">
-        <v>4.923882362896214</v>
+        <v>4.923882362896215</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08036804727251716</v>
+        <v>0.08036804727251719</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>1.02414364065306</v>
       </c>
       <c r="H25" t="n">
-        <v>9.105568005079029</v>
+        <v>9.10556800507903</v>
       </c>
       <c r="I25" t="n">
         <v>30.79879239345748</v>
       </c>
       <c r="J25" t="n">
-        <v>72.40695539417132</v>
+        <v>72.40695539417133</v>
       </c>
       <c r="K25" t="n">
         <v>118.9868702504191</v>
@@ -32882,25 +32882,25 @@
         <v>156.7219082101179</v>
       </c>
       <c r="O25" t="n">
-        <v>144.7580484079434</v>
+        <v>144.7580484079435</v>
       </c>
       <c r="P25" t="n">
         <v>123.8655181386209</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.75806430959395</v>
+        <v>85.75806430959396</v>
       </c>
       <c r="R25" t="n">
-        <v>46.04922224245484</v>
+        <v>46.04922224245485</v>
       </c>
       <c r="S25" t="n">
-        <v>17.84803053756286</v>
+        <v>17.84803053756287</v>
       </c>
       <c r="T25" t="n">
-        <v>4.375886464608527</v>
+        <v>4.375886464608528</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05586238039925787</v>
+        <v>0.05586238039925788</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34371,7 +34371,7 @@
         <v>193.7797200757802</v>
       </c>
       <c r="K44" t="n">
-        <v>290.4255681832077</v>
+        <v>290.4255681832082</v>
       </c>
       <c r="L44" t="n">
         <v>360.2985985167226</v>
@@ -34456,7 +34456,7 @@
         <v>265.2413453483974</v>
       </c>
       <c r="M45" t="n">
-        <v>309.5241393955541</v>
+        <v>309.5241393955542</v>
       </c>
       <c r="N45" t="n">
         <v>317.7163223475329</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.799631206432586</v>
+        <v>3.799631206432593</v>
       </c>
       <c r="L2" t="n">
-        <v>10.77088587362579</v>
+        <v>10.77088587362581</v>
       </c>
       <c r="M2" t="n">
-        <v>17.18295210907282</v>
+        <v>17.18295210907283</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O2" t="n">
-        <v>15.0141623058707</v>
+        <v>15.01416230587071</v>
       </c>
       <c r="P2" t="n">
-        <v>7.151197092855995</v>
+        <v>7.151197092856002</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13.6183370381365</v>
+        <v>9.270525416508185</v>
       </c>
       <c r="M3" t="n">
-        <v>13.87049564867181</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O3" t="n">
-        <v>16.42269341674558</v>
+        <v>16.42269341674559</v>
       </c>
       <c r="P3" t="n">
         <v>10.00730248430402</v>
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6010854422309855</v>
+        <v>0.601085442230989</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.799631206432586</v>
+        <v>6.601146109817527</v>
       </c>
       <c r="L5" t="n">
-        <v>10.77088587362579</v>
+        <v>14.24641283816825</v>
       </c>
       <c r="M5" t="n">
-        <v>17.18295210907282</v>
+        <v>21.05014551947927</v>
       </c>
       <c r="N5" t="n">
-        <v>18.2183072703001</v>
+        <v>22.14807591311317</v>
       </c>
       <c r="O5" t="n">
-        <v>15.0141623058707</v>
+        <v>18.72493140015997</v>
       </c>
       <c r="P5" t="n">
-        <v>7.151197092855995</v>
+        <v>10.31825266315469</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.473289392418831</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>13.6183370381365</v>
+        <v>16.17691886905386</v>
       </c>
       <c r="M6" t="n">
-        <v>9.397206256252966</v>
+        <v>22.05496501936139</v>
       </c>
       <c r="N6" t="n">
-        <v>18.21830727030011</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="O6" t="n">
-        <v>16.42269341674558</v>
+        <v>19.0898775400763</v>
       </c>
       <c r="P6" t="n">
-        <v>10.00730248430402</v>
+        <v>12.25749005635694</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.2924492011629134</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.8431658598427987</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6010854422309855</v>
+        <v>2.112862674119199</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.502976110201125</v>
+        <v>0.1007380482606773</v>
       </c>
       <c r="L9" t="n">
         <v>16.34750130909319</v>
@@ -35263,7 +35263,7 @@
         <v>22.25402668103339</v>
       </c>
       <c r="N9" t="n">
-        <v>17.56054206765434</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="O9" t="n">
         <v>19.41327970513236</v>
@@ -35272,7 +35272,7 @@
         <v>12.4075116354789</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.1002854526796213</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.91416773481392</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K11" t="n">
-        <v>35.17698580189472</v>
+        <v>78.2260031407771</v>
       </c>
       <c r="L11" t="n">
-        <v>49.69726882478401</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M11" t="n">
-        <v>60.49605345325834</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N11" t="n">
-        <v>62.23225987668787</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O11" t="n">
-        <v>56.57528966332809</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P11" t="n">
-        <v>42.62265774178104</v>
+        <v>91.28869553235685</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.10069815048838</v>
+        <v>60.64686578433749</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J12" t="n">
-        <v>7.580767567902672</v>
+        <v>24.6882622124955</v>
       </c>
       <c r="K12" t="n">
-        <v>25.78518267276229</v>
+        <v>55.02461586202807</v>
       </c>
       <c r="L12" t="n">
-        <v>42.27480760454341</v>
+        <v>81.59083389768523</v>
       </c>
       <c r="M12" t="n">
-        <v>52.50997021579066</v>
+        <v>98.3899184827294</v>
       </c>
       <c r="N12" t="n">
-        <v>56.26480823144204</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O12" t="n">
-        <v>47.82411870340098</v>
+        <v>90.9061604835053</v>
       </c>
       <c r="P12" t="n">
-        <v>35.20971467540036</v>
+        <v>69.78685138382997</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.34295432295098</v>
+        <v>38.45685451960989</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.096263762754475</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>7.782617097300154</v>
       </c>
       <c r="K13" t="n">
-        <v>8.099995097757429</v>
+        <v>25.73710560614897</v>
       </c>
       <c r="L13" t="n">
-        <v>15.27398492029074</v>
+        <v>37.84341412641244</v>
       </c>
       <c r="M13" t="n">
-        <v>16.6390947093549</v>
+        <v>40.43539333973013</v>
       </c>
       <c r="N13" t="n">
-        <v>17.53319964122687</v>
+        <v>40.76367547751443</v>
       </c>
       <c r="O13" t="n">
-        <v>12.86052855875074</v>
+        <v>34.3176329550318</v>
       </c>
       <c r="P13" t="n">
-        <v>7.87554500863677</v>
+        <v>26.23580464898427</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>9.040054754946549</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.35390946767973</v>
+        <v>38.40400308482265</v>
       </c>
       <c r="J17" t="n">
-        <v>146.4847527178556</v>
+        <v>131.1844578767424</v>
       </c>
       <c r="K17" t="n">
-        <v>227.8709642055424</v>
+        <v>204.9397884309919</v>
       </c>
       <c r="L17" t="n">
-        <v>288.7511882016391</v>
+        <v>260.3030369400421</v>
       </c>
       <c r="M17" t="n">
-        <v>326.489599519074</v>
+        <v>294.8355498686271</v>
       </c>
       <c r="N17" t="n">
-        <v>332.5298596055392</v>
+        <v>300.363614338458</v>
       </c>
       <c r="O17" t="n">
-        <v>311.8096483497472</v>
+        <v>281.4359750713708</v>
       </c>
       <c r="P17" t="n">
-        <v>260.4592778250533</v>
+        <v>234.536050401726</v>
       </c>
       <c r="Q17" t="n">
-        <v>187.6869278043854</v>
+        <v>168.2196636087624</v>
       </c>
       <c r="R17" t="n">
-        <v>95.15688901387051</v>
+        <v>83.83292670734963</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.00717714840503</v>
+        <v>18.68629633041358</v>
       </c>
       <c r="J18" t="n">
-        <v>84.156527187118</v>
+        <v>75.043776397264</v>
       </c>
       <c r="K18" t="n">
-        <v>156.6653526695429</v>
+        <v>141.0902101120917</v>
       </c>
       <c r="L18" t="n">
-        <v>218.2593477813808</v>
+        <v>197.3166465209137</v>
       </c>
       <c r="M18" t="n">
-        <v>257.875627947654</v>
+        <v>233.4364833800914</v>
       </c>
       <c r="N18" t="n">
-        <v>267.0658838388812</v>
+        <v>241.9799078355596</v>
       </c>
       <c r="O18" t="n">
-        <v>240.6659195512526</v>
+        <v>217.7171524514332</v>
       </c>
       <c r="P18" t="n">
-        <v>189.9822610892807</v>
+        <v>171.5638522926295</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.8043028191973</v>
+        <v>106.4920843062262</v>
       </c>
       <c r="R18" t="n">
-        <v>45.17675022952743</v>
+        <v>39.18816566143991</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.09109544017032</v>
+        <v>39.37404844657928</v>
       </c>
       <c r="K19" t="n">
-        <v>87.04639623516795</v>
+        <v>77.65153181725699</v>
       </c>
       <c r="L19" t="n">
-        <v>116.298198081575</v>
+        <v>104.2760061652592</v>
       </c>
       <c r="M19" t="n">
-        <v>123.154962848038</v>
+        <v>110.4792471079724</v>
       </c>
       <c r="N19" t="n">
-        <v>121.5163585102435</v>
+        <v>109.1420429588589</v>
       </c>
       <c r="O19" t="n">
-        <v>108.9058059362515</v>
+        <v>97.47612268353789</v>
       </c>
       <c r="P19" t="n">
-        <v>90.05887213947474</v>
+        <v>80.27880357798122</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.22783847825593</v>
+        <v>46.45662594669272</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>45.35390946767977</v>
+        <v>38.40400308482265</v>
       </c>
       <c r="J20" t="n">
-        <v>146.4847527178557</v>
+        <v>131.1844578767424</v>
       </c>
       <c r="K20" t="n">
-        <v>227.8709642055425</v>
+        <v>204.9397884309919</v>
       </c>
       <c r="L20" t="n">
-        <v>288.7511882016393</v>
+        <v>260.3030369400421</v>
       </c>
       <c r="M20" t="n">
-        <v>326.4895995190741</v>
+        <v>294.8355498686271</v>
       </c>
       <c r="N20" t="n">
-        <v>332.5298596055393</v>
+        <v>300.363614338458</v>
       </c>
       <c r="O20" t="n">
-        <v>311.8096483497474</v>
+        <v>281.4359750713708</v>
       </c>
       <c r="P20" t="n">
-        <v>260.4592778250534</v>
+        <v>234.536050401726</v>
       </c>
       <c r="Q20" t="n">
-        <v>187.6869278043856</v>
+        <v>168.2196636087624</v>
       </c>
       <c r="R20" t="n">
-        <v>95.15688901387057</v>
+        <v>83.83292670734963</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>22.00717714840506</v>
+        <v>18.68629633041358</v>
       </c>
       <c r="J21" t="n">
-        <v>84.15652718711804</v>
+        <v>75.043776397264</v>
       </c>
       <c r="K21" t="n">
-        <v>156.6653526695429</v>
+        <v>141.0902101120917</v>
       </c>
       <c r="L21" t="n">
-        <v>218.2593477813809</v>
+        <v>197.3166465209137</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8756279476541</v>
+        <v>233.4364833800914</v>
       </c>
       <c r="N21" t="n">
-        <v>267.0658838388814</v>
+        <v>241.9799078355596</v>
       </c>
       <c r="O21" t="n">
-        <v>240.6659195512528</v>
+        <v>217.7171524514332</v>
       </c>
       <c r="P21" t="n">
-        <v>189.9822610892808</v>
+        <v>171.5638522926295</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.8043028191974</v>
+        <v>106.4920843062262</v>
       </c>
       <c r="R21" t="n">
-        <v>45.17675022952746</v>
+        <v>39.18816566143991</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.09109544017035</v>
+        <v>39.37404844657928</v>
       </c>
       <c r="K22" t="n">
-        <v>87.04639623516799</v>
+        <v>77.65153181725699</v>
       </c>
       <c r="L22" t="n">
-        <v>116.298198081575</v>
+        <v>104.2760061652592</v>
       </c>
       <c r="M22" t="n">
-        <v>123.1549628480381</v>
+        <v>110.4792471079724</v>
       </c>
       <c r="N22" t="n">
-        <v>121.5163585102435</v>
+        <v>109.1420429588589</v>
       </c>
       <c r="O22" t="n">
-        <v>108.9058059362515</v>
+        <v>97.47612268353789</v>
       </c>
       <c r="P22" t="n">
-        <v>90.0588721394748</v>
+        <v>80.27880357798122</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.22783847825598</v>
+        <v>46.45662594669272</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>53.47333674641212</v>
+        <v>53.47333674641213</v>
       </c>
       <c r="J23" t="n">
         <v>164.3597605901937</v>
       </c>
       <c r="K23" t="n">
-        <v>254.6609673883984</v>
+        <v>254.6609673883985</v>
       </c>
       <c r="L23" t="n">
         <v>321.9865560840997</v>
       </c>
       <c r="M23" t="n">
-        <v>363.4703500581238</v>
+        <v>363.4703500581239</v>
       </c>
       <c r="N23" t="n">
-        <v>370.1089973504952</v>
+        <v>370.1089973504953</v>
       </c>
       <c r="O23" t="n">
-        <v>347.2945625034214</v>
+        <v>347.2945625034215</v>
       </c>
       <c r="P23" t="n">
-        <v>290.7448310827101</v>
+        <v>290.7448310827102</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.4301170280729</v>
+        <v>210.430117028073</v>
       </c>
       <c r="R23" t="n">
-        <v>108.3864324623543</v>
+        <v>108.3864324623544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.8868913226173</v>
+        <v>25.88689132261731</v>
       </c>
       <c r="J24" t="n">
-        <v>94.80275941981945</v>
+        <v>94.80275941981948</v>
       </c>
       <c r="K24" t="n">
         <v>174.8614592621509</v>
       </c>
       <c r="L24" t="n">
-        <v>242.7262586341678</v>
+        <v>242.7262586341679</v>
       </c>
       <c r="M24" t="n">
-        <v>286.4273588832262</v>
+        <v>286.4273588832263</v>
       </c>
       <c r="N24" t="n">
-        <v>296.3732941339912</v>
+        <v>296.3732941339913</v>
       </c>
       <c r="O24" t="n">
-        <v>267.4764743039269</v>
+        <v>267.476474303927</v>
       </c>
       <c r="P24" t="n">
-        <v>211.5000949385614</v>
+        <v>211.5000949385615</v>
       </c>
       <c r="Q24" t="n">
         <v>133.1884048989774</v>
       </c>
       <c r="R24" t="n">
-        <v>52.17308575183938</v>
+        <v>52.17308575183939</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>51.77019941026946</v>
+        <v>51.77019941026947</v>
       </c>
       <c r="K25" t="n">
-        <v>98.02221579770709</v>
+        <v>98.02221579770712</v>
       </c>
       <c r="L25" t="n">
         <v>130.3434682792092</v>
@@ -36533,10 +36533,10 @@
         <v>122.258860909519</v>
       </c>
       <c r="P25" t="n">
-        <v>101.4847174806344</v>
+        <v>101.4847174806345</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.138501544809</v>
+        <v>61.13850154480902</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>164.3597605901937</v>
       </c>
       <c r="K44" t="n">
-        <v>254.6609673883984</v>
+        <v>254.6609673883988</v>
       </c>
       <c r="L44" t="n">
         <v>321.9865560840997</v>
@@ -38104,7 +38104,7 @@
         <v>242.7262586341678</v>
       </c>
       <c r="M45" t="n">
-        <v>286.4273588832261</v>
+        <v>286.4273588832262</v>
       </c>
       <c r="N45" t="n">
         <v>296.3732941339912</v>
